--- a/data/confirmation_data.xlsx
+++ b/data/confirmation_data.xlsx
@@ -706,95 +706,87 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B2" t="n">
         <v>1</v>
       </c>
       <c r="C2" s="2" t="n">
-        <v>31783</v>
+        <v>30319</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>32133</v>
+        <v>30638</v>
       </c>
       <c r="E2" t="n">
-        <v>4718</v>
+        <v>3454</v>
       </c>
       <c r="F2" t="n">
-        <v>4569</v>
+        <v>2978</v>
       </c>
       <c r="G2" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="n">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>18667</v>
+        <v>12819</v>
       </c>
       <c r="L2" t="n">
-        <v>15711</v>
+        <v>12792</v>
       </c>
       <c r="M2" t="n">
-        <v>2955</v>
+        <v>26</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>14448</v>
+        <v>14784</v>
       </c>
       <c r="P2" t="n">
-        <v>12086</v>
-      </c>
-      <c r="Q2" t="n">
-        <v>2361</v>
-      </c>
+        <v>14782</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
       <c r="R2" t="n">
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>12101</v>
+        <v>21994</v>
       </c>
       <c r="T2" t="n">
-        <v>12055</v>
-      </c>
-      <c r="U2" t="n">
-        <v>46</v>
-      </c>
+        <v>21994</v>
+      </c>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="n">
-        <v>1995</v>
+        <v>2990</v>
       </c>
       <c r="W2" t="n">
-        <v>1983</v>
-      </c>
-      <c r="X2" t="n">
-        <v>10</v>
-      </c>
+        <v>2990</v>
+      </c>
+      <c r="X2" t="inlineStr"/>
       <c r="Y2" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z2" t="n">
-        <v>51929</v>
+        <v>56041</v>
       </c>
       <c r="AA2" t="n">
-        <v>46404</v>
+        <v>55536</v>
       </c>
       <c r="AB2" t="n">
-        <v>5494</v>
+        <v>26</v>
       </c>
       <c r="AC2" t="n">
-        <v>10</v>
-      </c>
-      <c r="AD2" t="n">
-        <v>1</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AD2" t="inlineStr"/>
       <c r="AE2" t="n">
-        <v>20</v>
+        <v>0</v>
       </c>
       <c r="AF2" t="n">
         <v>0</v>
@@ -813,7 +805,9 @@
       <c r="AR2" t="inlineStr"/>
       <c r="AS2" t="inlineStr"/>
       <c r="AT2" t="inlineStr"/>
-      <c r="AU2" t="inlineStr"/>
+      <c r="AU2" t="n">
+        <v>1</v>
+      </c>
       <c r="AV2" t="n">
         <v>0</v>
       </c>
@@ -821,123 +815,113 @@
         <v>0</v>
       </c>
       <c r="AX2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY2" t="n">
-        <v>0</v>
+        <v>474</v>
       </c>
       <c r="AZ2" t="n">
         <v>0</v>
       </c>
       <c r="BA2" t="n">
-        <v>0</v>
+        <v>477</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="B3" t="n">
         <v>2</v>
       </c>
       <c r="C3" s="2" t="n">
-        <v>32167</v>
+        <v>30704</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>32438</v>
+        <v>30967</v>
       </c>
       <c r="E3" t="n">
-        <v>2670</v>
+        <v>4127</v>
       </c>
       <c r="F3" t="n">
-        <v>2357</v>
+        <v>4001</v>
       </c>
       <c r="G3" t="n">
-        <v>424</v>
+        <v>107</v>
       </c>
       <c r="H3" t="n">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>12349</v>
+        <v>11818</v>
       </c>
       <c r="L3" t="n">
-        <v>15304</v>
+        <v>11844</v>
       </c>
       <c r="M3" t="inlineStr"/>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>10500</v>
+        <v>14031</v>
       </c>
       <c r="P3" t="n">
-        <v>12858</v>
-      </c>
-      <c r="Q3" t="n">
-        <v>2</v>
-      </c>
+        <v>14031</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
       <c r="R3" t="n">
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>10159</v>
+        <v>8855</v>
       </c>
       <c r="T3" t="n">
-        <v>10203</v>
-      </c>
-      <c r="U3" t="n">
-        <v>1</v>
-      </c>
+        <v>8855</v>
+      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="n">
-        <v>1586</v>
+        <v>2995</v>
       </c>
       <c r="W3" t="n">
-        <v>1595</v>
+        <v>2995</v>
       </c>
       <c r="X3" t="inlineStr"/>
       <c r="Y3" t="n">
         <v>0</v>
       </c>
       <c r="Z3" t="n">
-        <v>37264</v>
+        <v>41826</v>
       </c>
       <c r="AA3" t="n">
-        <v>42317</v>
+        <v>41726</v>
       </c>
       <c r="AB3" t="n">
-        <v>428</v>
+        <v>107</v>
       </c>
       <c r="AC3" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="AD3" t="inlineStr"/>
       <c r="AE3" t="n">
         <v>0</v>
       </c>
       <c r="AF3" t="n">
-        <v>122</v>
+        <v>0</v>
       </c>
       <c r="AG3" t="n">
-        <v>2955</v>
-      </c>
-      <c r="AH3" t="n">
-        <v>2361</v>
-      </c>
+        <v>26</v>
+      </c>
+      <c r="AH3" t="inlineStr"/>
       <c r="AI3" t="inlineStr"/>
-      <c r="AJ3" t="n">
-        <v>46</v>
-      </c>
+      <c r="AJ3" t="inlineStr"/>
       <c r="AK3" t="inlineStr"/>
-      <c r="AL3" t="n">
-        <v>10</v>
-      </c>
+      <c r="AL3" t="inlineStr"/>
       <c r="AM3" t="n">
-        <v>5494</v>
+        <v>26</v>
       </c>
       <c r="AN3" t="inlineStr"/>
       <c r="AO3" t="inlineStr"/>
@@ -948,10 +932,10 @@
       <c r="AT3" t="inlineStr"/>
       <c r="AU3" t="inlineStr"/>
       <c r="AV3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AW3" t="n">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="AX3" t="n">
         <v>0</v>
@@ -968,95 +952,89 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B4" t="n">
         <v>1</v>
       </c>
       <c r="C4" s="2" t="n">
-        <v>32511</v>
+        <v>31050</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>32834</v>
+        <v>31401</v>
       </c>
       <c r="E4" t="n">
-        <v>3564</v>
+        <v>3719</v>
       </c>
       <c r="F4" t="n">
-        <v>3399</v>
+        <v>3603</v>
       </c>
       <c r="G4" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="H4" t="n">
-        <v>34</v>
-      </c>
-      <c r="I4" t="n">
-        <v>1</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="I4" t="inlineStr"/>
       <c r="J4" t="n">
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>11421</v>
+        <v>21367</v>
       </c>
       <c r="L4" t="n">
-        <v>11394</v>
+        <v>19013</v>
       </c>
       <c r="M4" t="n">
-        <v>27</v>
+        <v>2354</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>17754</v>
+        <v>15370</v>
       </c>
       <c r="P4" t="n">
-        <v>15312</v>
+        <v>14478</v>
       </c>
       <c r="Q4" t="n">
-        <v>2441</v>
+        <v>892</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>12908</v>
+        <v>16721</v>
       </c>
       <c r="T4" t="n">
-        <v>12704</v>
-      </c>
-      <c r="U4" t="n">
-        <v>204</v>
-      </c>
+        <v>16720</v>
+      </c>
+      <c r="U4" t="inlineStr"/>
       <c r="V4" t="n">
-        <v>2787</v>
+        <v>2466</v>
       </c>
       <c r="W4" t="n">
-        <v>2776</v>
+        <v>2104</v>
       </c>
       <c r="X4" t="n">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
       </c>
       <c r="Z4" t="n">
-        <v>48434</v>
+        <v>59643</v>
       </c>
       <c r="AA4" t="n">
-        <v>45585</v>
+        <v>55918</v>
       </c>
       <c r="AB4" t="n">
-        <v>2762</v>
+        <v>3677</v>
       </c>
       <c r="AC4" t="n">
-        <v>34</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>1</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="AD4" t="inlineStr"/>
       <c r="AE4" t="n">
         <v>0</v>
       </c>
@@ -1067,7 +1045,9 @@
       <c r="AH4" t="inlineStr"/>
       <c r="AI4" t="inlineStr"/>
       <c r="AJ4" t="inlineStr"/>
-      <c r="AK4" t="inlineStr"/>
+      <c r="AK4" t="n">
+        <v>1</v>
+      </c>
       <c r="AL4" t="inlineStr"/>
       <c r="AM4" t="inlineStr"/>
       <c r="AN4" t="inlineStr"/>
@@ -1079,123 +1059,123 @@
       <c r="AT4" t="inlineStr"/>
       <c r="AU4" t="inlineStr"/>
       <c r="AV4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AW4" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX4" t="n">
         <v>0</v>
       </c>
       <c r="AY4" t="n">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="AZ4" t="n">
         <v>0</v>
       </c>
       <c r="BA4" t="n">
-        <v>52</v>
+        <v>34</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="B5" t="n">
         <v>2</v>
       </c>
       <c r="C5" s="2" t="n">
-        <v>32896</v>
+        <v>31433</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>33174</v>
+        <v>31703</v>
       </c>
       <c r="E5" t="n">
-        <v>2008</v>
+        <v>2046</v>
       </c>
       <c r="F5" t="n">
-        <v>1715</v>
+        <v>2037</v>
       </c>
       <c r="G5" t="n">
-        <v>287</v>
+        <v>70</v>
       </c>
       <c r="H5" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>27</v>
-      </c>
-      <c r="L5" t="inlineStr"/>
-      <c r="M5" t="n">
-        <v>1977</v>
-      </c>
+        <v>12246</v>
+      </c>
+      <c r="L5" t="n">
+        <v>14600</v>
+      </c>
+      <c r="M5" t="inlineStr"/>
       <c r="N5" t="n">
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>2441</v>
-      </c>
-      <c r="P5" t="inlineStr"/>
-      <c r="Q5" t="n">
-        <v>2924</v>
-      </c>
+        <v>9918</v>
+      </c>
+      <c r="P5" t="n">
+        <v>10810</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
       <c r="R5" t="n">
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>204</v>
-      </c>
-      <c r="T5" t="inlineStr"/>
+        <v>9952</v>
+      </c>
+      <c r="T5" t="n">
+        <v>9952</v>
+      </c>
       <c r="U5" t="inlineStr"/>
       <c r="V5" t="n">
-        <v>11</v>
-      </c>
-      <c r="W5" t="inlineStr"/>
+        <v>2132</v>
+      </c>
+      <c r="W5" t="n">
+        <v>2494</v>
+      </c>
       <c r="X5" t="inlineStr"/>
       <c r="Y5" t="n">
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>44934</v>
+        <v>37294</v>
       </c>
       <c r="AA5" t="n">
-        <v>42493</v>
+        <v>39983</v>
       </c>
       <c r="AB5" t="n">
-        <v>5189</v>
+        <v>70</v>
       </c>
       <c r="AC5" t="n">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="AD5" t="inlineStr"/>
       <c r="AE5" t="n">
         <v>0</v>
       </c>
       <c r="AF5" t="n">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="AG5" t="n">
-        <v>27</v>
+        <v>2354</v>
       </c>
       <c r="AH5" t="n">
-        <v>2441</v>
-      </c>
-      <c r="AI5" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ5" t="n">
-        <v>204</v>
-      </c>
+        <v>892</v>
+      </c>
+      <c r="AI5" t="inlineStr"/>
+      <c r="AJ5" t="inlineStr"/>
       <c r="AK5" t="inlineStr"/>
       <c r="AL5" t="n">
-        <v>11</v>
+        <v>362</v>
       </c>
       <c r="AM5" t="n">
-        <v>2762</v>
+        <v>3677</v>
       </c>
       <c r="AN5" t="inlineStr"/>
       <c r="AO5" t="inlineStr"/>
@@ -1226,100 +1206,102 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B6" t="n">
         <v>1</v>
       </c>
       <c r="C6" s="2" t="n">
-        <v>33241</v>
+        <v>31783</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>33606</v>
+        <v>32133</v>
       </c>
       <c r="E6" t="n">
-        <v>3376</v>
+        <v>4718</v>
       </c>
       <c r="F6" t="n">
-        <v>3256</v>
+        <v>4569</v>
       </c>
       <c r="G6" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="H6" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="n">
-        <v>0</v>
+        <v>16</v>
       </c>
       <c r="K6" t="n">
-        <v>13777</v>
+        <v>18667</v>
       </c>
       <c r="L6" t="n">
-        <v>13750</v>
+        <v>15711</v>
       </c>
       <c r="M6" t="n">
-        <v>26</v>
+        <v>2955</v>
       </c>
       <c r="N6" t="n">
         <v>0</v>
       </c>
       <c r="O6" t="n">
-        <v>13137</v>
+        <v>14448</v>
       </c>
       <c r="P6" t="n">
-        <v>13098</v>
+        <v>12086</v>
       </c>
       <c r="Q6" t="n">
-        <v>37</v>
+        <v>2361</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>13541</v>
+        <v>12101</v>
       </c>
       <c r="T6" t="n">
-        <v>13538</v>
+        <v>12055</v>
       </c>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>46</v>
       </c>
       <c r="V6" t="n">
-        <v>1538</v>
+        <v>1995</v>
       </c>
       <c r="W6" t="n">
-        <v>1538</v>
-      </c>
-      <c r="X6" t="inlineStr"/>
+        <v>1983</v>
+      </c>
+      <c r="X6" t="n">
+        <v>10</v>
+      </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z6" t="n">
-        <v>45369</v>
+        <v>51929</v>
       </c>
       <c r="AA6" t="n">
-        <v>45180</v>
+        <v>46404</v>
       </c>
       <c r="AB6" t="n">
-        <v>167</v>
+        <v>5494</v>
       </c>
       <c r="AC6" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD6" t="inlineStr"/>
+        <v>10</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>1</v>
+      </c>
       <c r="AE6" t="n">
-        <v>0</v>
+        <v>20</v>
       </c>
       <c r="AF6" t="n">
         <v>0</v>
       </c>
       <c r="AG6" t="inlineStr"/>
       <c r="AH6" t="inlineStr"/>
-      <c r="AI6" t="n">
-        <v>2</v>
-      </c>
+      <c r="AI6" t="inlineStr"/>
       <c r="AJ6" t="inlineStr"/>
       <c r="AK6" t="inlineStr"/>
       <c r="AL6" t="inlineStr"/>
@@ -1342,130 +1324,122 @@
         <v>0</v>
       </c>
       <c r="AY6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="AZ6" t="n">
         <v>0</v>
       </c>
       <c r="BA6" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B7" t="n">
         <v>2</v>
       </c>
       <c r="C7" s="2" t="n">
-        <v>33606</v>
+        <v>32167</v>
       </c>
       <c r="D7" s="2" t="n">
-        <v>33886</v>
+        <v>32438</v>
       </c>
       <c r="E7" t="n">
-        <v>2661</v>
+        <v>2670</v>
       </c>
       <c r="F7" t="n">
-        <v>2541</v>
+        <v>2357</v>
       </c>
       <c r="G7" t="n">
-        <v>193</v>
+        <v>424</v>
       </c>
       <c r="H7" t="n">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>6708</v>
+        <v>12349</v>
       </c>
       <c r="L7" t="n">
-        <v>6728</v>
-      </c>
-      <c r="M7" t="n">
-        <v>3</v>
-      </c>
+        <v>15304</v>
+      </c>
+      <c r="M7" t="inlineStr"/>
       <c r="N7" t="n">
         <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>11201</v>
+        <v>10500</v>
       </c>
       <c r="P7" t="n">
-        <v>11232</v>
+        <v>12858</v>
       </c>
       <c r="Q7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>8001</v>
+        <v>10159</v>
       </c>
       <c r="T7" t="n">
-        <v>7696</v>
+        <v>10203</v>
       </c>
       <c r="U7" t="n">
-        <v>305</v>
+        <v>1</v>
       </c>
       <c r="V7" t="n">
-        <v>2506</v>
+        <v>1586</v>
       </c>
       <c r="W7" t="n">
-        <v>2422</v>
-      </c>
-      <c r="X7" t="n">
-        <v>84</v>
-      </c>
+        <v>1595</v>
+      </c>
+      <c r="X7" t="inlineStr"/>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
       <c r="Z7" t="n">
-        <v>31077</v>
+        <v>37264</v>
       </c>
       <c r="AA7" t="n">
-        <v>30619</v>
+        <v>42317</v>
       </c>
       <c r="AB7" t="n">
-        <v>589</v>
+        <v>428</v>
       </c>
       <c r="AC7" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AD7" t="inlineStr"/>
       <c r="AE7" t="n">
         <v>0</v>
       </c>
       <c r="AF7" t="n">
-        <v>101</v>
+        <v>122</v>
       </c>
       <c r="AG7" t="n">
-        <v>26</v>
+        <v>2955</v>
       </c>
       <c r="AH7" t="n">
-        <v>37</v>
-      </c>
-      <c r="AI7" t="n">
-        <v>2</v>
-      </c>
+        <v>2361</v>
+      </c>
+      <c r="AI7" t="inlineStr"/>
       <c r="AJ7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK7" t="n">
-        <v>3</v>
-      </c>
-      <c r="AL7" t="inlineStr"/>
+        <v>46</v>
+      </c>
+      <c r="AK7" t="inlineStr"/>
+      <c r="AL7" t="n">
+        <v>10</v>
+      </c>
       <c r="AM7" t="n">
-        <v>167</v>
-      </c>
-      <c r="AN7" t="n">
-        <v>3</v>
-      </c>
+        <v>5494</v>
+      </c>
+      <c r="AN7" t="inlineStr"/>
       <c r="AO7" t="inlineStr"/>
       <c r="AP7" t="inlineStr"/>
       <c r="AQ7" t="inlineStr"/>
@@ -1494,114 +1468,110 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B8" t="n">
         <v>1</v>
       </c>
       <c r="C8" s="2" t="n">
-        <v>33974</v>
+        <v>32511</v>
       </c>
       <c r="D8" s="2" t="n">
-        <v>34297</v>
+        <v>32834</v>
       </c>
       <c r="E8" t="n">
-        <v>2931</v>
+        <v>3564</v>
       </c>
       <c r="F8" t="n">
-        <v>2700</v>
+        <v>3399</v>
       </c>
       <c r="G8" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="H8" t="n">
-        <v>8</v>
-      </c>
-      <c r="I8" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="I8" t="n">
+        <v>1</v>
+      </c>
       <c r="J8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>13741</v>
+        <v>11421</v>
       </c>
       <c r="L8" t="n">
-        <v>13736</v>
+        <v>11394</v>
       </c>
       <c r="M8" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>12714</v>
+        <v>17754</v>
       </c>
       <c r="P8" t="n">
-        <v>11028</v>
+        <v>15312</v>
       </c>
       <c r="Q8" t="n">
-        <v>1686</v>
+        <v>2441</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11119</v>
+        <v>12908</v>
       </c>
       <c r="T8" t="n">
-        <v>9584</v>
+        <v>12704</v>
       </c>
       <c r="U8" t="n">
-        <v>657</v>
+        <v>204</v>
       </c>
       <c r="V8" t="n">
-        <v>1834</v>
+        <v>2787</v>
       </c>
       <c r="W8" t="n">
-        <v>1628</v>
+        <v>2776</v>
       </c>
       <c r="X8" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
       </c>
       <c r="Z8" t="n">
-        <v>42339</v>
+        <v>48434</v>
       </c>
       <c r="AA8" t="n">
-        <v>38676</v>
+        <v>45585</v>
       </c>
       <c r="AB8" t="n">
-        <v>2752</v>
+        <v>2762</v>
       </c>
       <c r="AC8" t="n">
-        <v>1078</v>
-      </c>
-      <c r="AD8" t="inlineStr"/>
+        <v>34</v>
+      </c>
+      <c r="AD8" t="n">
+        <v>1</v>
+      </c>
       <c r="AE8" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="AF8" t="n">
         <v>0</v>
       </c>
       <c r="AG8" t="inlineStr"/>
       <c r="AH8" t="inlineStr"/>
-      <c r="AI8" t="n">
-        <v>2</v>
-      </c>
+      <c r="AI8" t="inlineStr"/>
       <c r="AJ8" t="inlineStr"/>
-      <c r="AK8" t="n">
-        <v>878</v>
-      </c>
+      <c r="AK8" t="inlineStr"/>
       <c r="AL8" t="inlineStr"/>
       <c r="AM8" t="inlineStr"/>
-      <c r="AN8" t="n">
-        <v>1</v>
-      </c>
-      <c r="AO8" t="n">
-        <v>191</v>
-      </c>
+      <c r="AN8" t="inlineStr"/>
+      <c r="AO8" t="inlineStr"/>
       <c r="AP8" t="inlineStr"/>
       <c r="AQ8" t="inlineStr"/>
       <c r="AR8" t="inlineStr"/>
@@ -1618,126 +1588,114 @@
         <v>0</v>
       </c>
       <c r="AY8" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
       </c>
       <c r="BA8" t="n">
-        <v>0</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="B9" t="n">
         <v>2</v>
       </c>
       <c r="C9" s="2" t="n">
-        <v>34359</v>
+        <v>32896</v>
       </c>
       <c r="D9" s="2" t="n">
-        <v>34669</v>
+        <v>33174</v>
       </c>
       <c r="E9" t="n">
-        <v>3029</v>
+        <v>2008</v>
       </c>
       <c r="F9" t="n">
-        <v>3085</v>
+        <v>1715</v>
       </c>
       <c r="G9" t="n">
-        <v>154</v>
+        <v>287</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="n">
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>9124</v>
-      </c>
-      <c r="L9" t="n">
-        <v>9126</v>
-      </c>
+        <v>27</v>
+      </c>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
-        <v>2</v>
+        <v>1977</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>10278</v>
-      </c>
-      <c r="P9" t="n">
-        <v>11960</v>
-      </c>
+        <v>2441</v>
+      </c>
+      <c r="P9" t="inlineStr"/>
       <c r="Q9" t="n">
-        <v>4</v>
+        <v>2924</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>11255</v>
-      </c>
-      <c r="T9" t="n">
-        <v>11901</v>
-      </c>
-      <c r="U9" t="n">
-        <v>9</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="n">
-        <v>1359</v>
-      </c>
-      <c r="W9" t="n">
-        <v>1374</v>
-      </c>
-      <c r="X9" t="n">
-        <v>0</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
         <v>0</v>
       </c>
       <c r="Z9" t="n">
-        <v>37446</v>
+        <v>44934</v>
       </c>
       <c r="AA9" t="n">
-        <v>37446</v>
+        <v>42493</v>
       </c>
       <c r="AB9" t="n">
-        <v>169</v>
+        <v>5189</v>
       </c>
       <c r="AC9" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AD9" t="inlineStr"/>
       <c r="AE9" t="n">
         <v>0</v>
       </c>
       <c r="AF9" t="n">
-        <v>210</v>
+        <v>79</v>
       </c>
       <c r="AG9" t="n">
-        <v>4</v>
+        <v>27</v>
       </c>
       <c r="AH9" t="n">
-        <v>1686</v>
-      </c>
-      <c r="AI9" t="inlineStr"/>
+        <v>2441</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>2</v>
+      </c>
       <c r="AJ9" t="n">
-        <v>657</v>
-      </c>
-      <c r="AK9" t="n">
-        <v>2</v>
-      </c>
+        <v>204</v>
+      </c>
+      <c r="AK9" t="inlineStr"/>
       <c r="AL9" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="AM9" t="n">
-        <v>2572</v>
+        <v>2762</v>
       </c>
       <c r="AN9" t="inlineStr"/>
       <c r="AO9" t="inlineStr"/>
@@ -1768,100 +1726,100 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B10" t="n">
         <v>1</v>
       </c>
       <c r="C10" s="2" t="n">
-        <v>34703</v>
+        <v>33241</v>
       </c>
       <c r="D10" s="2" t="n">
-        <v>35067</v>
+        <v>33606</v>
       </c>
       <c r="E10" t="n">
-        <v>2466</v>
+        <v>3376</v>
       </c>
       <c r="F10" t="n">
-        <v>2016</v>
+        <v>3256</v>
       </c>
       <c r="G10" t="n">
-        <v>439</v>
+        <v>101</v>
       </c>
       <c r="H10" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>18521</v>
+        <v>13777</v>
       </c>
       <c r="L10" t="n">
-        <v>13569</v>
+        <v>13750</v>
       </c>
       <c r="M10" t="n">
-        <v>4952</v>
+        <v>26</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
       </c>
       <c r="O10" t="n">
-        <v>12345</v>
+        <v>13137</v>
       </c>
       <c r="P10" t="n">
-        <v>10041</v>
+        <v>13098</v>
       </c>
       <c r="Q10" t="n">
-        <v>2304</v>
+        <v>37</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>12106</v>
+        <v>13541</v>
       </c>
       <c r="T10" t="n">
-        <v>12077</v>
+        <v>13538</v>
       </c>
       <c r="U10" t="n">
-        <v>21</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
-        <v>2841</v>
+        <v>1538</v>
       </c>
       <c r="W10" t="n">
-        <v>2832</v>
-      </c>
-      <c r="X10" t="n">
-        <v>8</v>
-      </c>
+        <v>1538</v>
+      </c>
+      <c r="X10" t="inlineStr"/>
       <c r="Y10" t="n">
         <v>0</v>
       </c>
       <c r="Z10" t="n">
-        <v>48279</v>
+        <v>45369</v>
       </c>
       <c r="AA10" t="n">
-        <v>40535</v>
+        <v>45180</v>
       </c>
       <c r="AB10" t="n">
-        <v>7724</v>
+        <v>167</v>
       </c>
       <c r="AC10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD10" t="inlineStr"/>
       <c r="AE10" t="n">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AF10" t="n">
         <v>0</v>
       </c>
       <c r="AG10" t="inlineStr"/>
       <c r="AH10" t="inlineStr"/>
-      <c r="AI10" t="inlineStr"/>
+      <c r="AI10" t="n">
+        <v>2</v>
+      </c>
       <c r="AJ10" t="inlineStr"/>
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
@@ -1884,124 +1842,130 @@
         <v>0</v>
       </c>
       <c r="AY10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="BA10" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="B11" t="n">
         <v>2</v>
       </c>
       <c r="C11" s="2" t="n">
-        <v>35067</v>
+        <v>33606</v>
       </c>
       <c r="D11" s="2" t="n">
-        <v>35341</v>
+        <v>33886</v>
       </c>
       <c r="E11" t="n">
-        <v>1781</v>
+        <v>2661</v>
       </c>
       <c r="F11" t="n">
-        <v>1485</v>
+        <v>2541</v>
       </c>
       <c r="G11" t="n">
-        <v>724</v>
+        <v>193</v>
       </c>
       <c r="H11" t="n">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>6213</v>
+        <v>6708</v>
       </c>
       <c r="L11" t="n">
-        <v>11159</v>
+        <v>6728</v>
       </c>
       <c r="M11" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
       </c>
       <c r="O11" t="n">
-        <v>8720</v>
+        <v>11201</v>
       </c>
       <c r="P11" t="n">
-        <v>11018</v>
+        <v>11232</v>
       </c>
       <c r="Q11" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>7165</v>
+        <v>8001</v>
       </c>
       <c r="T11" t="n">
-        <v>7175</v>
+        <v>7696</v>
       </c>
       <c r="U11" t="n">
-        <v>11</v>
+        <v>305</v>
       </c>
       <c r="V11" t="n">
-        <v>2332</v>
+        <v>2506</v>
       </c>
       <c r="W11" t="n">
-        <v>2339</v>
-      </c>
-      <c r="X11" t="inlineStr"/>
+        <v>2422</v>
+      </c>
+      <c r="X11" t="n">
+        <v>84</v>
+      </c>
       <c r="Y11" t="n">
         <v>0</v>
       </c>
       <c r="Z11" t="n">
-        <v>26211</v>
+        <v>31077</v>
       </c>
       <c r="AA11" t="n">
-        <v>33176</v>
+        <v>30619</v>
       </c>
       <c r="AB11" t="n">
-        <v>748</v>
+        <v>589</v>
       </c>
       <c r="AC11" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD11" t="inlineStr"/>
       <c r="AE11" t="n">
         <v>0</v>
       </c>
       <c r="AF11" t="n">
-        <v>439</v>
+        <v>101</v>
       </c>
       <c r="AG11" t="n">
-        <v>4952</v>
+        <v>26</v>
       </c>
       <c r="AH11" t="n">
-        <v>2304</v>
-      </c>
-      <c r="AI11" t="inlineStr"/>
+        <v>37</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>2</v>
+      </c>
       <c r="AJ11" t="n">
-        <v>21</v>
-      </c>
-      <c r="AK11" t="inlineStr"/>
-      <c r="AL11" t="n">
-        <v>8</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>3</v>
+      </c>
+      <c r="AL11" t="inlineStr"/>
       <c r="AM11" t="n">
-        <v>7724</v>
-      </c>
-      <c r="AN11" t="inlineStr"/>
+        <v>167</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>3</v>
+      </c>
       <c r="AO11" t="inlineStr"/>
       <c r="AP11" t="inlineStr"/>
       <c r="AQ11" t="inlineStr"/>
@@ -2030,106 +1994,114 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B12" t="n">
         <v>1</v>
       </c>
       <c r="C12" s="2" t="n">
-        <v>35433</v>
+        <v>33974</v>
       </c>
       <c r="D12" s="2" t="n">
-        <v>35747</v>
+        <v>34297</v>
       </c>
       <c r="E12" t="n">
-        <v>3203</v>
+        <v>2931</v>
       </c>
       <c r="F12" t="n">
-        <v>3380</v>
+        <v>2700</v>
       </c>
       <c r="G12" t="n">
         <v>210</v>
       </c>
       <c r="H12" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="n">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="K12" t="n">
-        <v>8141</v>
+        <v>13741</v>
       </c>
       <c r="L12" t="n">
-        <v>8120</v>
+        <v>13736</v>
       </c>
       <c r="M12" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="N12" t="n">
         <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>6244</v>
+        <v>12714</v>
       </c>
       <c r="P12" t="n">
-        <v>6244</v>
+        <v>11028</v>
       </c>
       <c r="Q12" t="n">
-        <v>2</v>
+        <v>1686</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
       </c>
       <c r="S12" t="n">
-        <v>6157</v>
+        <v>11119</v>
       </c>
       <c r="T12" t="n">
-        <v>6153</v>
+        <v>9584</v>
       </c>
       <c r="U12" t="n">
-        <v>4</v>
+        <v>657</v>
       </c>
       <c r="V12" t="n">
-        <v>1679</v>
+        <v>1834</v>
       </c>
       <c r="W12" t="n">
-        <v>1679</v>
+        <v>1628</v>
       </c>
       <c r="X12" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="Y12" t="n">
         <v>0</v>
       </c>
       <c r="Z12" t="n">
-        <v>25828</v>
+        <v>42339</v>
       </c>
       <c r="AA12" t="n">
-        <v>25576</v>
+        <v>38676</v>
       </c>
       <c r="AB12" t="n">
-        <v>237</v>
+        <v>2752</v>
       </c>
       <c r="AC12" t="n">
-        <v>13</v>
+        <v>1078</v>
       </c>
       <c r="AD12" t="inlineStr"/>
       <c r="AE12" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="AF12" t="n">
         <v>0</v>
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="inlineStr"/>
+      <c r="AI12" t="n">
+        <v>2</v>
+      </c>
       <c r="AJ12" t="inlineStr"/>
-      <c r="AK12" t="inlineStr"/>
+      <c r="AK12" t="n">
+        <v>878</v>
+      </c>
       <c r="AL12" t="inlineStr"/>
       <c r="AM12" t="inlineStr"/>
-      <c r="AN12" t="inlineStr"/>
-      <c r="AO12" t="inlineStr"/>
+      <c r="AN12" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>191</v>
+      </c>
       <c r="AP12" t="inlineStr"/>
       <c r="AQ12" t="inlineStr"/>
       <c r="AR12" t="inlineStr"/>
@@ -2157,101 +2129,115 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B13" t="n">
         <v>2</v>
       </c>
       <c r="C13" s="2" t="n">
-        <v>35822</v>
+        <v>34359</v>
       </c>
       <c r="D13" s="2" t="n">
-        <v>36089</v>
+        <v>34669</v>
       </c>
       <c r="E13" t="n">
-        <v>1782</v>
+        <v>3029</v>
       </c>
       <c r="F13" t="n">
-        <v>1845</v>
+        <v>3085</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="H13" t="n">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="K13" t="n">
-        <v>6070</v>
+        <v>9124</v>
       </c>
       <c r="L13" t="n">
-        <v>6087</v>
-      </c>
-      <c r="M13" t="inlineStr"/>
+        <v>9126</v>
+      </c>
+      <c r="M13" t="n">
+        <v>2</v>
+      </c>
       <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>10278</v>
+      </c>
+      <c r="P13" t="n">
+        <v>11960</v>
+      </c>
+      <c r="Q13" t="n">
         <v>4</v>
       </c>
-      <c r="O13" t="n">
-        <v>5479</v>
-      </c>
-      <c r="P13" t="n">
-        <v>5478</v>
-      </c>
-      <c r="Q13" t="inlineStr"/>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>5047</v>
+        <v>11255</v>
       </c>
       <c r="T13" t="n">
-        <v>5045</v>
-      </c>
-      <c r="U13" t="inlineStr"/>
+        <v>11901</v>
+      </c>
+      <c r="U13" t="n">
+        <v>9</v>
+      </c>
       <c r="V13" t="n">
-        <v>1847</v>
+        <v>1359</v>
       </c>
       <c r="W13" t="n">
-        <v>1847</v>
-      </c>
-      <c r="X13" t="inlineStr"/>
+        <v>1374</v>
+      </c>
+      <c r="X13" t="n">
+        <v>0</v>
+      </c>
       <c r="Y13" t="n">
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>20225</v>
+        <v>37446</v>
       </c>
       <c r="AA13" t="n">
-        <v>20302</v>
-      </c>
-      <c r="AB13" t="inlineStr"/>
+        <v>37446</v>
+      </c>
+      <c r="AB13" t="n">
+        <v>169</v>
+      </c>
       <c r="AC13" t="n">
-        <v>27</v>
+        <v>2</v>
       </c>
       <c r="AD13" t="inlineStr"/>
       <c r="AE13" t="n">
-        <v>133</v>
+        <v>0</v>
       </c>
       <c r="AF13" t="n">
         <v>210</v>
       </c>
       <c r="AG13" t="n">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="AH13" t="n">
-        <v>2</v>
+        <v>1686</v>
       </c>
       <c r="AI13" t="inlineStr"/>
       <c r="AJ13" t="n">
-        <v>4</v>
-      </c>
-      <c r="AK13" t="inlineStr"/>
-      <c r="AL13" t="inlineStr"/>
+        <v>657</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>15</v>
+      </c>
       <c r="AM13" t="n">
-        <v>237</v>
+        <v>2572</v>
       </c>
       <c r="AN13" t="inlineStr"/>
       <c r="AO13" t="inlineStr"/>
@@ -2274,7 +2260,7 @@
         <v>0</v>
       </c>
       <c r="AZ13" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="BA13" t="n">
         <v>0</v>
@@ -2282,93 +2268,93 @@
     </row>
     <row r="14">
       <c r="A14" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B14" t="n">
         <v>1</v>
       </c>
       <c r="C14" s="2" t="n">
-        <v>36166</v>
+        <v>34703</v>
       </c>
       <c r="D14" s="2" t="n">
-        <v>36486</v>
+        <v>35067</v>
       </c>
       <c r="E14" t="n">
-        <v>3259</v>
+        <v>2466</v>
       </c>
       <c r="F14" t="n">
-        <v>2317</v>
+        <v>2016</v>
       </c>
       <c r="G14" t="n">
-        <v>920</v>
+        <v>439</v>
       </c>
       <c r="H14" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>10</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
-        <v>6234</v>
+        <v>18521</v>
       </c>
       <c r="L14" t="n">
-        <v>6219</v>
+        <v>13569</v>
       </c>
       <c r="M14" t="n">
-        <v>15</v>
+        <v>4952</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
       </c>
       <c r="O14" t="n">
-        <v>5429</v>
+        <v>12345</v>
       </c>
       <c r="P14" t="n">
-        <v>5225</v>
+        <v>10041</v>
       </c>
       <c r="Q14" t="n">
-        <v>204</v>
+        <v>2304</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>6590</v>
+        <v>12106</v>
       </c>
       <c r="T14" t="n">
-        <v>6580</v>
+        <v>12077</v>
       </c>
       <c r="U14" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="V14" t="n">
-        <v>2128</v>
+        <v>2841</v>
       </c>
       <c r="W14" t="n">
-        <v>2127</v>
+        <v>2832</v>
       </c>
       <c r="X14" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
       </c>
       <c r="Z14" t="n">
-        <v>23640</v>
+        <v>48279</v>
       </c>
       <c r="AA14" t="n">
-        <v>22468</v>
+        <v>40535</v>
       </c>
       <c r="AB14" t="n">
-        <v>1150</v>
+        <v>7724</v>
       </c>
       <c r="AC14" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD14" t="inlineStr"/>
       <c r="AE14" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF14" t="n">
         <v>0</v>
@@ -2401,7 +2387,7 @@
         <v>0</v>
       </c>
       <c r="AZ14" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="BA14" t="n">
         <v>0</v>
@@ -2409,107 +2395,111 @@
     </row>
     <row r="15">
       <c r="A15" t="n">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="B15" t="n">
         <v>2</v>
       </c>
       <c r="C15" s="2" t="n">
-        <v>36549</v>
+        <v>35067</v>
       </c>
       <c r="D15" s="2" t="n">
-        <v>36891</v>
+        <v>35341</v>
       </c>
       <c r="E15" t="n">
-        <v>1581</v>
+        <v>1781</v>
       </c>
       <c r="F15" t="n">
-        <v>2271</v>
+        <v>1485</v>
       </c>
       <c r="G15" t="n">
-        <v>19</v>
+        <v>724</v>
       </c>
       <c r="H15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
-        <v>198</v>
+        <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>5769</v>
+        <v>6213</v>
       </c>
       <c r="L15" t="n">
-        <v>5781</v>
-      </c>
-      <c r="M15" t="inlineStr"/>
+        <v>11159</v>
+      </c>
+      <c r="M15" t="n">
+        <v>6</v>
+      </c>
       <c r="N15" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
-        <v>6401</v>
+        <v>8720</v>
       </c>
       <c r="P15" t="n">
-        <v>6045</v>
+        <v>11018</v>
       </c>
       <c r="Q15" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="R15" t="n">
-        <v>558</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
-        <v>5585</v>
+        <v>7165</v>
       </c>
       <c r="T15" t="n">
-        <v>5588</v>
-      </c>
-      <c r="U15" t="inlineStr"/>
+        <v>7175</v>
+      </c>
+      <c r="U15" t="n">
+        <v>11</v>
+      </c>
       <c r="V15" t="n">
-        <v>2826</v>
+        <v>2332</v>
       </c>
       <c r="W15" t="n">
-        <v>2827</v>
+        <v>2339</v>
       </c>
       <c r="X15" t="inlineStr"/>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
       <c r="Z15" t="n">
-        <v>22162</v>
+        <v>26211</v>
       </c>
       <c r="AA15" t="n">
-        <v>22512</v>
+        <v>33176</v>
       </c>
       <c r="AB15" t="n">
-        <v>21</v>
+        <v>748</v>
       </c>
       <c r="AC15" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AD15" t="inlineStr"/>
       <c r="AE15" t="n">
-        <v>766</v>
+        <v>0</v>
       </c>
       <c r="AF15" t="n">
-        <v>920</v>
+        <v>439</v>
       </c>
       <c r="AG15" t="n">
-        <v>15</v>
+        <v>4952</v>
       </c>
       <c r="AH15" t="n">
-        <v>204</v>
+        <v>2304</v>
       </c>
       <c r="AI15" t="inlineStr"/>
       <c r="AJ15" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AK15" t="inlineStr"/>
       <c r="AL15" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="AM15" t="n">
-        <v>1150</v>
+        <v>7724</v>
       </c>
       <c r="AN15" t="inlineStr"/>
       <c r="AO15" t="inlineStr"/>
@@ -2532,7 +2522,7 @@
         <v>0</v>
       </c>
       <c r="AZ15" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="BA15" t="n">
         <v>0</v>
@@ -2540,91 +2530,93 @@
     </row>
     <row r="16">
       <c r="A16" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B16" t="n">
         <v>1</v>
       </c>
       <c r="C16" s="2" t="n">
-        <v>36894</v>
+        <v>35433</v>
       </c>
       <c r="D16" s="2" t="n">
-        <v>37256</v>
+        <v>35747</v>
       </c>
       <c r="E16" t="n">
-        <v>3409</v>
+        <v>3203</v>
       </c>
       <c r="F16" t="n">
-        <v>2225</v>
+        <v>3380</v>
       </c>
       <c r="G16" t="n">
-        <v>701</v>
+        <v>210</v>
       </c>
       <c r="H16" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="n">
-        <v>414</v>
+        <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>6801</v>
+        <v>8141</v>
       </c>
       <c r="L16" t="n">
-        <v>6750</v>
+        <v>8120</v>
       </c>
       <c r="M16" t="n">
+        <v>21</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>6244</v>
+      </c>
+      <c r="P16" t="n">
+        <v>6244</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>2</v>
+      </c>
+      <c r="R16" t="n">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>6157</v>
+      </c>
+      <c r="T16" t="n">
+        <v>6153</v>
+      </c>
+      <c r="U16" t="n">
         <v>4</v>
       </c>
-      <c r="N16" t="n">
-        <v>47</v>
-      </c>
-      <c r="O16" t="n">
-        <v>7142</v>
-      </c>
-      <c r="P16" t="n">
-        <v>6981</v>
-      </c>
-      <c r="Q16" t="n">
-        <v>53</v>
-      </c>
-      <c r="R16" t="n">
-        <v>108</v>
-      </c>
-      <c r="S16" t="n">
-        <v>5593</v>
-      </c>
-      <c r="T16" t="n">
-        <v>5564</v>
-      </c>
-      <c r="U16" t="inlineStr"/>
       <c r="V16" t="n">
-        <v>3625</v>
+        <v>1679</v>
       </c>
       <c r="W16" t="n">
-        <v>3571</v>
+        <v>1679</v>
       </c>
       <c r="X16" t="n">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="Z16" t="n">
-        <v>26570</v>
+        <v>25828</v>
       </c>
       <c r="AA16" t="n">
-        <v>25091</v>
+        <v>25576</v>
       </c>
       <c r="AB16" t="n">
-        <v>791</v>
+        <v>237</v>
       </c>
       <c r="AC16" t="n">
-        <v>69</v>
+        <v>13</v>
       </c>
       <c r="AD16" t="inlineStr"/>
       <c r="AE16" t="n">
-        <v>619</v>
+        <v>2</v>
       </c>
       <c r="AF16" t="n">
         <v>0</v>
@@ -2635,9 +2627,7 @@
       <c r="AJ16" t="inlineStr"/>
       <c r="AK16" t="inlineStr"/>
       <c r="AL16" t="inlineStr"/>
-      <c r="AM16" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM16" t="inlineStr"/>
       <c r="AN16" t="inlineStr"/>
       <c r="AO16" t="inlineStr"/>
       <c r="AP16" t="inlineStr"/>
@@ -2659,7 +2649,7 @@
         <v>0</v>
       </c>
       <c r="AZ16" t="n">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="BA16" t="n">
         <v>0</v>
@@ -2667,103 +2657,101 @@
     </row>
     <row r="17">
       <c r="A17" t="n">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B17" t="n">
         <v>2</v>
       </c>
       <c r="C17" s="2" t="n">
-        <v>37279</v>
+        <v>35822</v>
       </c>
       <c r="D17" s="2" t="n">
-        <v>37582</v>
+        <v>36089</v>
       </c>
       <c r="E17" t="n">
-        <v>2028</v>
+        <v>1782</v>
       </c>
       <c r="F17" t="n">
-        <v>2564</v>
+        <v>1845</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
       </c>
       <c r="H17" t="n">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="n">
-        <v>155</v>
+        <v>120</v>
       </c>
       <c r="K17" t="n">
-        <v>5813</v>
+        <v>6070</v>
       </c>
       <c r="L17" t="n">
-        <v>5811</v>
+        <v>6087</v>
       </c>
       <c r="M17" t="inlineStr"/>
       <c r="N17" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="O17" t="n">
-        <v>6182</v>
+        <v>5479</v>
       </c>
       <c r="P17" t="n">
-        <v>6225</v>
+        <v>5478</v>
       </c>
       <c r="Q17" t="inlineStr"/>
       <c r="R17" t="n">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="S17" t="n">
-        <v>6044</v>
+        <v>5047</v>
       </c>
       <c r="T17" t="n">
-        <v>6030</v>
+        <v>5045</v>
       </c>
       <c r="U17" t="inlineStr"/>
       <c r="V17" t="n">
-        <v>2978</v>
+        <v>1847</v>
       </c>
       <c r="W17" t="n">
-        <v>3003</v>
+        <v>1847</v>
       </c>
       <c r="X17" t="inlineStr"/>
       <c r="Y17" t="n">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Z17" t="n">
-        <v>23045</v>
+        <v>20225</v>
       </c>
       <c r="AA17" t="n">
-        <v>23633</v>
-      </c>
-      <c r="AB17" t="n">
-        <v>0</v>
-      </c>
+        <v>20302</v>
+      </c>
+      <c r="AB17" t="inlineStr"/>
       <c r="AC17" t="n">
-        <v>10</v>
+        <v>27</v>
       </c>
       <c r="AD17" t="inlineStr"/>
       <c r="AE17" t="n">
-        <v>193</v>
+        <v>133</v>
       </c>
       <c r="AF17" t="n">
-        <v>701</v>
+        <v>210</v>
       </c>
       <c r="AG17" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI17" t="inlineStr"/>
+      <c r="AJ17" t="n">
         <v>4</v>
       </c>
-      <c r="AH17" t="n">
-        <v>53</v>
-      </c>
-      <c r="AI17" t="inlineStr"/>
-      <c r="AJ17" t="inlineStr"/>
       <c r="AK17" t="inlineStr"/>
-      <c r="AL17" t="n">
-        <v>33</v>
-      </c>
+      <c r="AL17" t="inlineStr"/>
       <c r="AM17" t="n">
-        <v>791</v>
+        <v>237</v>
       </c>
       <c r="AN17" t="inlineStr"/>
       <c r="AO17" t="inlineStr"/>
@@ -2786,7 +2774,7 @@
         <v>0</v>
       </c>
       <c r="AZ17" t="n">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="BA17" t="n">
         <v>0</v>
@@ -2794,93 +2782,93 @@
     </row>
     <row r="18">
       <c r="A18" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B18" t="n">
         <v>1</v>
       </c>
       <c r="C18" s="2" t="n">
-        <v>37628</v>
+        <v>36166</v>
       </c>
       <c r="D18" s="2" t="n">
-        <v>37986</v>
+        <v>36486</v>
       </c>
       <c r="E18" t="n">
-        <v>3178</v>
+        <v>3259</v>
       </c>
       <c r="F18" t="n">
-        <v>2951</v>
+        <v>2317</v>
       </c>
       <c r="G18" t="n">
-        <v>200</v>
+        <v>920</v>
       </c>
       <c r="H18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="K18" t="n">
-        <v>9068</v>
+        <v>6234</v>
       </c>
       <c r="L18" t="n">
-        <v>5494</v>
+        <v>6219</v>
       </c>
       <c r="M18" t="n">
-        <v>3572</v>
+        <v>15</v>
       </c>
       <c r="N18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="O18" t="n">
-        <v>6012</v>
+        <v>5429</v>
       </c>
       <c r="P18" t="n">
-        <v>5416</v>
+        <v>5225</v>
       </c>
       <c r="Q18" t="n">
-        <v>594</v>
+        <v>204</v>
       </c>
       <c r="R18" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
-        <v>7752</v>
+        <v>6590</v>
       </c>
       <c r="T18" t="n">
-        <v>5308</v>
+        <v>6580</v>
       </c>
       <c r="U18" t="n">
-        <v>2444</v>
+        <v>10</v>
       </c>
       <c r="V18" t="n">
-        <v>2413</v>
+        <v>2128</v>
       </c>
       <c r="W18" t="n">
-        <v>2411</v>
+        <v>2127</v>
       </c>
       <c r="X18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y18" t="n">
         <v>0</v>
       </c>
       <c r="Z18" t="n">
-        <v>28423</v>
+        <v>23640</v>
       </c>
       <c r="AA18" t="n">
-        <v>21580</v>
+        <v>22468</v>
       </c>
       <c r="AB18" t="n">
-        <v>6812</v>
+        <v>1150</v>
       </c>
       <c r="AC18" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD18" t="inlineStr"/>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="AF18" t="n">
         <v>0</v>
@@ -2891,9 +2879,7 @@
       <c r="AJ18" t="inlineStr"/>
       <c r="AK18" t="inlineStr"/>
       <c r="AL18" t="inlineStr"/>
-      <c r="AM18" t="n">
-        <v>0</v>
-      </c>
+      <c r="AM18" t="inlineStr"/>
       <c r="AN18" t="inlineStr"/>
       <c r="AO18" t="inlineStr"/>
       <c r="AP18" t="inlineStr"/>
@@ -2923,109 +2909,109 @@
     </row>
     <row r="19">
       <c r="A19" t="n">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B19" t="n">
         <v>2</v>
       </c>
       <c r="C19" s="2" t="n">
-        <v>38006</v>
+        <v>36549</v>
       </c>
       <c r="D19" s="2" t="n">
-        <v>38352</v>
+        <v>36891</v>
       </c>
       <c r="E19" t="n">
-        <v>4417</v>
+        <v>1581</v>
       </c>
       <c r="F19" t="n">
-        <v>4415</v>
+        <v>2271</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>19</v>
       </c>
       <c r="H19" t="n">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="n">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="K19" t="n">
-        <v>6077</v>
+        <v>5769</v>
       </c>
       <c r="L19" t="n">
-        <v>5777</v>
+        <v>5781</v>
       </c>
       <c r="M19" t="inlineStr"/>
       <c r="N19" t="n">
-        <v>3870</v>
+        <v>3</v>
       </c>
       <c r="O19" t="n">
-        <v>5324</v>
+        <v>6401</v>
       </c>
       <c r="P19" t="n">
-        <v>5827</v>
-      </c>
-      <c r="Q19" t="inlineStr"/>
+        <v>6045</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>2</v>
+      </c>
       <c r="R19" t="n">
-        <v>91</v>
+        <v>558</v>
       </c>
       <c r="S19" t="n">
-        <v>7375</v>
+        <v>5585</v>
       </c>
       <c r="T19" t="n">
-        <v>9803</v>
+        <v>5588</v>
       </c>
       <c r="U19" t="inlineStr"/>
       <c r="V19" t="n">
-        <v>1227</v>
+        <v>2826</v>
       </c>
       <c r="W19" t="n">
-        <v>1225</v>
+        <v>2827</v>
       </c>
       <c r="X19" t="inlineStr"/>
       <c r="Y19" t="n">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="Z19" t="n">
-        <v>24420</v>
+        <v>22162</v>
       </c>
       <c r="AA19" t="n">
-        <v>27047</v>
+        <v>22512</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="AC19" t="n">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="AD19" t="inlineStr"/>
       <c r="AE19" t="n">
-        <v>4159</v>
+        <v>766</v>
       </c>
       <c r="AF19" t="n">
-        <v>200</v>
+        <v>920</v>
       </c>
       <c r="AG19" t="n">
-        <v>3572</v>
+        <v>15</v>
       </c>
       <c r="AH19" t="n">
-        <v>594</v>
+        <v>204</v>
       </c>
       <c r="AI19" t="inlineStr"/>
       <c r="AJ19" t="n">
-        <v>2444</v>
+        <v>10</v>
       </c>
       <c r="AK19" t="inlineStr"/>
       <c r="AL19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AM19" t="n">
-        <v>6812</v>
-      </c>
-      <c r="AN19" t="n">
-        <v>2</v>
-      </c>
+        <v>1150</v>
+      </c>
+      <c r="AN19" t="inlineStr"/>
       <c r="AO19" t="inlineStr"/>
       <c r="AP19" t="inlineStr"/>
       <c r="AQ19" t="inlineStr"/>
@@ -3046,7 +3032,7 @@
         <v>0</v>
       </c>
       <c r="AZ19" t="n">
-        <v>16</v>
+        <v>7</v>
       </c>
       <c r="BA19" t="n">
         <v>0</v>
@@ -3054,93 +3040,91 @@
     </row>
     <row r="20">
       <c r="A20" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B20" t="n">
         <v>1</v>
       </c>
       <c r="C20" s="2" t="n">
-        <v>38356</v>
+        <v>36894</v>
       </c>
       <c r="D20" s="2" t="n">
-        <v>38708</v>
+        <v>37256</v>
       </c>
       <c r="E20" t="n">
-        <v>3251</v>
+        <v>3409</v>
       </c>
       <c r="F20" t="n">
-        <v>2285</v>
+        <v>2225</v>
       </c>
       <c r="G20" t="n">
-        <v>928</v>
+        <v>701</v>
       </c>
       <c r="H20" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
-        <v>20</v>
+        <v>414</v>
       </c>
       <c r="K20" t="n">
-        <v>9860</v>
+        <v>6801</v>
       </c>
       <c r="L20" t="n">
-        <v>9723</v>
+        <v>6750</v>
       </c>
       <c r="M20" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="N20" t="n">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="O20" t="n">
-        <v>8586</v>
+        <v>7142</v>
       </c>
       <c r="P20" t="n">
-        <v>7971</v>
+        <v>6981</v>
       </c>
       <c r="Q20" t="n">
-        <v>608</v>
+        <v>53</v>
       </c>
       <c r="R20" t="n">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="S20" t="n">
-        <v>4607</v>
+        <v>5593</v>
       </c>
       <c r="T20" t="n">
-        <v>4583</v>
-      </c>
-      <c r="U20" t="n">
+        <v>5564</v>
+      </c>
+      <c r="U20" t="inlineStr"/>
+      <c r="V20" t="n">
+        <v>3625</v>
+      </c>
+      <c r="W20" t="n">
+        <v>3571</v>
+      </c>
+      <c r="X20" t="n">
+        <v>33</v>
+      </c>
+      <c r="Y20" t="n">
         <v>21</v>
       </c>
-      <c r="V20" t="n">
-        <v>1382</v>
-      </c>
-      <c r="W20" t="n">
-        <v>1380</v>
-      </c>
-      <c r="X20" t="n">
-        <v>2</v>
-      </c>
-      <c r="Y20" t="n">
-        <v>0</v>
-      </c>
       <c r="Z20" t="n">
-        <v>27686</v>
+        <v>26570</v>
       </c>
       <c r="AA20" t="n">
-        <v>25942</v>
+        <v>25091</v>
       </c>
       <c r="AB20" t="n">
-        <v>1659</v>
+        <v>791</v>
       </c>
       <c r="AC20" t="n">
-        <v>18</v>
+        <v>69</v>
       </c>
       <c r="AD20" t="inlineStr"/>
       <c r="AE20" t="n">
-        <v>67</v>
+        <v>619</v>
       </c>
       <c r="AF20" t="n">
         <v>0</v>
@@ -3175,7 +3159,7 @@
         <v>0</v>
       </c>
       <c r="AZ20" t="n">
-        <v>3</v>
+        <v>29</v>
       </c>
       <c r="BA20" t="n">
         <v>0</v>
@@ -3183,105 +3167,103 @@
     </row>
     <row r="21">
       <c r="A21" t="n">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B21" t="n">
         <v>2</v>
       </c>
       <c r="C21" s="2" t="n">
-        <v>38720</v>
+        <v>37279</v>
       </c>
       <c r="D21" s="2" t="n">
-        <v>39082</v>
+        <v>37582</v>
       </c>
       <c r="E21" t="n">
-        <v>2956</v>
+        <v>2028</v>
       </c>
       <c r="F21" t="n">
-        <v>3678</v>
+        <v>2564</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
       </c>
       <c r="H21" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
-        <v>184</v>
+        <v>155</v>
       </c>
       <c r="K21" t="n">
-        <v>7730</v>
+        <v>5813</v>
       </c>
       <c r="L21" t="n">
-        <v>7829</v>
+        <v>5811</v>
       </c>
       <c r="M21" t="inlineStr"/>
       <c r="N21" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="O21" t="n">
-        <v>9177</v>
+        <v>6182</v>
       </c>
       <c r="P21" t="n">
-        <v>9772</v>
+        <v>6225</v>
       </c>
       <c r="Q21" t="inlineStr"/>
       <c r="R21" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="S21" t="n">
-        <v>7015</v>
+        <v>6044</v>
       </c>
       <c r="T21" t="n">
-        <v>7035</v>
+        <v>6030</v>
       </c>
       <c r="U21" t="inlineStr"/>
       <c r="V21" t="n">
-        <v>1291</v>
+        <v>2978</v>
       </c>
       <c r="W21" t="n">
-        <v>1289</v>
+        <v>3003</v>
       </c>
       <c r="X21" t="inlineStr"/>
       <c r="Y21" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="Z21" t="n">
-        <v>28169</v>
+        <v>23045</v>
       </c>
       <c r="AA21" t="n">
-        <v>29603</v>
+        <v>23633</v>
       </c>
       <c r="AB21" t="n">
         <v>0</v>
       </c>
       <c r="AC21" t="n">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="AD21" t="inlineStr"/>
       <c r="AE21" t="n">
-        <v>203</v>
+        <v>193</v>
       </c>
       <c r="AF21" t="n">
-        <v>928</v>
+        <v>701</v>
       </c>
       <c r="AG21" t="n">
-        <v>100</v>
+        <v>4</v>
       </c>
       <c r="AH21" t="n">
-        <v>608</v>
+        <v>53</v>
       </c>
       <c r="AI21" t="inlineStr"/>
-      <c r="AJ21" t="n">
-        <v>21</v>
-      </c>
+      <c r="AJ21" t="inlineStr"/>
       <c r="AK21" t="inlineStr"/>
       <c r="AL21" t="n">
-        <v>2</v>
+        <v>33</v>
       </c>
       <c r="AM21" t="n">
-        <v>1659</v>
+        <v>791</v>
       </c>
       <c r="AN21" t="inlineStr"/>
       <c r="AO21" t="inlineStr"/>
@@ -3304,7 +3286,7 @@
         <v>0</v>
       </c>
       <c r="AZ21" t="n">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="BA21" t="n">
         <v>0</v>
@@ -3312,93 +3294,93 @@
     </row>
     <row r="22">
       <c r="A22" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B22" t="n">
         <v>1</v>
       </c>
       <c r="C22" s="2" t="n">
-        <v>39086</v>
+        <v>37628</v>
       </c>
       <c r="D22" s="2" t="n">
-        <v>39447</v>
+        <v>37986</v>
       </c>
       <c r="E22" t="n">
-        <v>4297</v>
+        <v>3178</v>
       </c>
       <c r="F22" t="n">
-        <v>4075</v>
+        <v>2951</v>
       </c>
       <c r="G22" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="H22" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="K22" t="n">
-        <v>6096</v>
+        <v>9068</v>
       </c>
       <c r="L22" t="n">
-        <v>6090</v>
+        <v>5494</v>
       </c>
       <c r="M22" t="n">
-        <v>5</v>
+        <v>3572</v>
       </c>
       <c r="N22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="O22" t="n">
-        <v>6721</v>
+        <v>6012</v>
       </c>
       <c r="P22" t="n">
-        <v>6698</v>
+        <v>5416</v>
       </c>
       <c r="Q22" t="n">
-        <v>19</v>
+        <v>594</v>
       </c>
       <c r="R22" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S22" t="n">
-        <v>4691</v>
+        <v>7752</v>
       </c>
       <c r="T22" t="n">
-        <v>4688</v>
+        <v>5308</v>
       </c>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>2444</v>
       </c>
       <c r="V22" t="n">
-        <v>1342</v>
+        <v>2413</v>
       </c>
       <c r="W22" t="n">
-        <v>1341</v>
+        <v>2411</v>
       </c>
       <c r="X22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
       </c>
       <c r="Z22" t="n">
-        <v>0</v>
+        <v>28423</v>
       </c>
       <c r="AA22" t="n">
-        <v>22892</v>
+        <v>21580</v>
       </c>
       <c r="AB22" t="n">
-        <v>216</v>
+        <v>6812</v>
       </c>
       <c r="AC22" t="n">
-        <v>31</v>
+        <v>13</v>
       </c>
       <c r="AD22" t="inlineStr"/>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="AF22" t="n">
         <v>0</v>
@@ -3410,7 +3392,7 @@
       <c r="AK22" t="inlineStr"/>
       <c r="AL22" t="inlineStr"/>
       <c r="AM22" t="n">
-        <v>23147</v>
+        <v>0</v>
       </c>
       <c r="AN22" t="inlineStr"/>
       <c r="AO22" t="inlineStr"/>
@@ -3441,112 +3423,108 @@
     </row>
     <row r="23">
       <c r="A23" t="n">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B23" t="n">
         <v>2</v>
       </c>
       <c r="C23" s="2" t="n">
-        <v>39450</v>
+        <v>38006</v>
       </c>
       <c r="D23" s="2" t="n">
-        <v>39816</v>
+        <v>38352</v>
       </c>
       <c r="E23" t="n">
-        <v>3444</v>
+        <v>4417</v>
       </c>
       <c r="F23" t="n">
-        <v>3229</v>
+        <v>4415</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>40</v>
+        <v>24</v>
       </c>
       <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
-        <v>363</v>
+        <v>178</v>
       </c>
       <c r="K23" t="n">
-        <v>5926</v>
+        <v>6077</v>
       </c>
       <c r="L23" t="n">
-        <v>5925</v>
+        <v>5777</v>
       </c>
       <c r="M23" t="inlineStr"/>
       <c r="N23" t="n">
-        <v>5</v>
+        <v>3870</v>
       </c>
       <c r="O23" t="n">
-        <v>6406</v>
+        <v>5324</v>
       </c>
       <c r="P23" t="n">
-        <v>6351</v>
+        <v>5827</v>
       </c>
       <c r="Q23" t="inlineStr"/>
       <c r="R23" t="n">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="S23" t="n">
-        <v>4749</v>
+        <v>7375</v>
       </c>
       <c r="T23" t="n">
-        <v>4715</v>
+        <v>9803</v>
       </c>
       <c r="U23" t="inlineStr"/>
       <c r="V23" t="n">
-        <v>1565</v>
+        <v>1227</v>
       </c>
       <c r="W23" t="n">
-        <v>1565</v>
+        <v>1225</v>
       </c>
       <c r="X23" t="inlineStr"/>
       <c r="Y23" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="Z23" t="n">
-        <v>22090</v>
+        <v>24420</v>
       </c>
       <c r="AA23" t="n">
-        <v>21785</v>
+        <v>27047</v>
       </c>
       <c r="AB23" t="n">
         <v>0</v>
       </c>
       <c r="AC23" t="n">
-        <v>43</v>
+        <v>26</v>
       </c>
       <c r="AD23" t="inlineStr"/>
       <c r="AE23" t="n">
-        <v>478</v>
+        <v>4159</v>
       </c>
       <c r="AF23" t="n">
-        <v>188</v>
+        <v>200</v>
       </c>
       <c r="AG23" t="n">
-        <v>5</v>
+        <v>3572</v>
       </c>
       <c r="AH23" t="n">
-        <v>19</v>
-      </c>
-      <c r="AI23" t="n">
-        <v>1</v>
-      </c>
+        <v>594</v>
+      </c>
+      <c r="AI23" t="inlineStr"/>
       <c r="AJ23" t="n">
-        <v>3</v>
-      </c>
-      <c r="AK23" t="n">
-        <v>1</v>
-      </c>
+        <v>2444</v>
+      </c>
+      <c r="AK23" t="inlineStr"/>
       <c r="AL23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AM23" t="n">
-        <v>216</v>
+        <v>6812</v>
       </c>
       <c r="AN23" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AO23" t="inlineStr"/>
       <c r="AP23" t="inlineStr"/>
@@ -3568,7 +3546,7 @@
         <v>0</v>
       </c>
       <c r="AZ23" t="n">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="BA23" t="n">
         <v>0</v>
@@ -3576,93 +3554,93 @@
     </row>
     <row r="24">
       <c r="A24" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B24" t="n">
         <v>1</v>
       </c>
       <c r="C24" s="2" t="n">
-        <v>39819</v>
+        <v>38356</v>
       </c>
       <c r="D24" s="2" t="n">
-        <v>40178</v>
+        <v>38708</v>
       </c>
       <c r="E24" t="n">
-        <v>3222</v>
+        <v>3251</v>
       </c>
       <c r="F24" t="n">
-        <v>2879</v>
+        <v>2285</v>
       </c>
       <c r="G24" t="n">
-        <v>321</v>
+        <v>928</v>
       </c>
       <c r="H24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
+        <v>20</v>
+      </c>
+      <c r="K24" t="n">
+        <v>9860</v>
+      </c>
+      <c r="L24" t="n">
+        <v>9723</v>
+      </c>
+      <c r="M24" t="n">
+        <v>100</v>
+      </c>
+      <c r="N24" t="n">
+        <v>37</v>
+      </c>
+      <c r="O24" t="n">
+        <v>8586</v>
+      </c>
+      <c r="P24" t="n">
+        <v>7971</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>608</v>
+      </c>
+      <c r="R24" t="n">
         <v>7</v>
       </c>
-      <c r="K24" t="n">
-        <v>7870</v>
-      </c>
-      <c r="L24" t="n">
-        <v>7111</v>
-      </c>
-      <c r="M24" t="n">
-        <v>759</v>
-      </c>
-      <c r="N24" t="n">
-        <v>0</v>
-      </c>
-      <c r="O24" t="n">
-        <v>7223</v>
-      </c>
-      <c r="P24" t="n">
-        <v>7146</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>76</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1</v>
-      </c>
       <c r="S24" t="n">
-        <v>4442</v>
+        <v>4607</v>
       </c>
       <c r="T24" t="n">
-        <v>4434</v>
+        <v>4583</v>
       </c>
       <c r="U24" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="V24" t="n">
-        <v>2194</v>
+        <v>1382</v>
       </c>
       <c r="W24" t="n">
-        <v>1480</v>
+        <v>1380</v>
       </c>
       <c r="X24" t="n">
-        <v>714</v>
+        <v>2</v>
       </c>
       <c r="Y24" t="n">
         <v>0</v>
       </c>
       <c r="Z24" t="n">
-        <v>24951</v>
+        <v>27686</v>
       </c>
       <c r="AA24" t="n">
-        <v>23050</v>
+        <v>25942</v>
       </c>
       <c r="AB24" t="n">
-        <v>1878</v>
+        <v>1659</v>
       </c>
       <c r="AC24" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AD24" t="inlineStr"/>
       <c r="AE24" t="n">
-        <v>8</v>
+        <v>67</v>
       </c>
       <c r="AF24" t="n">
         <v>0</v>
@@ -3697,7 +3675,7 @@
         <v>0</v>
       </c>
       <c r="AZ24" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA24" t="n">
         <v>0</v>
@@ -3705,107 +3683,105 @@
     </row>
     <row r="25">
       <c r="A25" t="n">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B25" t="n">
         <v>2</v>
       </c>
       <c r="C25" s="2" t="n">
-        <v>40183</v>
+        <v>38720</v>
       </c>
       <c r="D25" s="2" t="n">
-        <v>40543</v>
+        <v>39082</v>
       </c>
       <c r="E25" t="n">
-        <v>2675</v>
+        <v>2956</v>
       </c>
       <c r="F25" t="n">
-        <v>2800</v>
+        <v>3678</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="K25" t="n">
-        <v>6600</v>
+        <v>7730</v>
       </c>
       <c r="L25" t="n">
-        <v>7318</v>
+        <v>7829</v>
       </c>
       <c r="M25" t="inlineStr"/>
       <c r="N25" t="n">
-        <v>41</v>
+        <v>1</v>
       </c>
       <c r="O25" t="n">
-        <v>7486</v>
+        <v>9177</v>
       </c>
       <c r="P25" t="n">
-        <v>7553</v>
+        <v>9772</v>
       </c>
       <c r="Q25" t="inlineStr"/>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="S25" t="n">
-        <v>4448</v>
+        <v>7015</v>
       </c>
       <c r="T25" t="n">
-        <v>4454</v>
+        <v>7035</v>
       </c>
       <c r="U25" t="inlineStr"/>
       <c r="V25" t="n">
-        <v>627</v>
+        <v>1291</v>
       </c>
       <c r="W25" t="n">
-        <v>1202</v>
+        <v>1289</v>
       </c>
       <c r="X25" t="inlineStr"/>
       <c r="Y25" t="n">
-        <v>139</v>
+        <v>4</v>
       </c>
       <c r="Z25" t="n">
-        <v>21836</v>
+        <v>28169</v>
       </c>
       <c r="AA25" t="n">
-        <v>23327</v>
+        <v>29603</v>
       </c>
       <c r="AB25" t="n">
         <v>0</v>
       </c>
       <c r="AC25" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AD25" t="inlineStr"/>
       <c r="AE25" t="n">
-        <v>366</v>
+        <v>203</v>
       </c>
       <c r="AF25" t="n">
-        <v>321</v>
+        <v>928</v>
       </c>
       <c r="AG25" t="n">
-        <v>759</v>
+        <v>100</v>
       </c>
       <c r="AH25" t="n">
-        <v>76</v>
-      </c>
-      <c r="AI25" t="n">
-        <v>5</v>
-      </c>
+        <v>608</v>
+      </c>
+      <c r="AI25" t="inlineStr"/>
       <c r="AJ25" t="n">
-        <v>8</v>
+        <v>21</v>
       </c>
       <c r="AK25" t="inlineStr"/>
       <c r="AL25" t="n">
-        <v>714</v>
+        <v>2</v>
       </c>
       <c r="AM25" t="n">
-        <v>1878</v>
+        <v>1659</v>
       </c>
       <c r="AN25" t="inlineStr"/>
       <c r="AO25" t="inlineStr"/>
@@ -3828,7 +3804,7 @@
         <v>0</v>
       </c>
       <c r="AZ25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="BA25" t="n">
         <v>0</v>
@@ -3836,91 +3812,93 @@
     </row>
     <row r="26">
       <c r="A26" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B26" t="n">
         <v>1</v>
       </c>
       <c r="C26" s="2" t="n">
-        <v>40548</v>
+        <v>39086</v>
       </c>
       <c r="D26" s="2" t="n">
-        <v>40911</v>
+        <v>39447</v>
       </c>
       <c r="E26" t="n">
-        <v>3972</v>
+        <v>4297</v>
       </c>
       <c r="F26" t="n">
-        <v>3582</v>
+        <v>4075</v>
       </c>
       <c r="G26" t="n">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="H26" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="K26" t="n">
-        <v>5983</v>
+        <v>6096</v>
       </c>
       <c r="L26" t="n">
-        <v>5688</v>
+        <v>6090</v>
       </c>
       <c r="M26" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O26" t="n">
-        <v>5908</v>
+        <v>6721</v>
       </c>
       <c r="P26" t="n">
-        <v>5892</v>
+        <v>6698</v>
       </c>
       <c r="Q26" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="R26" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="S26" t="n">
-        <v>3405</v>
+        <v>4691</v>
       </c>
       <c r="T26" t="n">
-        <v>3404</v>
+        <v>4688</v>
       </c>
       <c r="U26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="V26" t="n">
-        <v>1249</v>
+        <v>1342</v>
       </c>
       <c r="W26" t="n">
-        <v>1249</v>
-      </c>
-      <c r="X26" t="inlineStr"/>
+        <v>1341</v>
+      </c>
+      <c r="X26" t="n">
+        <v>1</v>
+      </c>
       <c r="Y26" t="n">
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>20517</v>
+        <v>0</v>
       </c>
       <c r="AA26" t="n">
-        <v>19815</v>
+        <v>22892</v>
       </c>
       <c r="AB26" t="n">
-        <v>667</v>
+        <v>216</v>
       </c>
       <c r="AC26" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="AD26" t="inlineStr"/>
       <c r="AE26" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AF26" t="n">
         <v>0</v>
@@ -3931,7 +3909,9 @@
       <c r="AJ26" t="inlineStr"/>
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
-      <c r="AM26" t="inlineStr"/>
+      <c r="AM26" t="n">
+        <v>23147</v>
+      </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
       <c r="AP26" t="inlineStr"/>
@@ -3961,105 +3941,109 @@
     </row>
     <row r="27">
       <c r="A27" t="n">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B27" t="n">
         <v>2</v>
       </c>
       <c r="C27" s="2" t="n">
-        <v>40911</v>
+        <v>39450</v>
       </c>
       <c r="D27" s="2" t="n">
-        <v>41277</v>
+        <v>39816</v>
       </c>
       <c r="E27" t="n">
-        <v>5019</v>
+        <v>3444</v>
       </c>
       <c r="F27" t="n">
-        <v>5225</v>
+        <v>3229</v>
       </c>
       <c r="G27" t="n">
         <v>0</v>
       </c>
       <c r="H27" t="n">
-        <v>19</v>
+        <v>40</v>
       </c>
       <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
-        <v>130</v>
+        <v>363</v>
       </c>
       <c r="K27" t="n">
-        <v>6298</v>
+        <v>5926</v>
       </c>
       <c r="L27" t="n">
-        <v>6582</v>
+        <v>5925</v>
       </c>
       <c r="M27" t="inlineStr"/>
       <c r="N27" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>7300</v>
+        <v>6406</v>
       </c>
       <c r="P27" t="n">
-        <v>7304</v>
+        <v>6351</v>
       </c>
       <c r="Q27" t="inlineStr"/>
       <c r="R27" t="n">
-        <v>11</v>
+        <v>73</v>
       </c>
       <c r="S27" t="n">
-        <v>3872</v>
+        <v>4749</v>
       </c>
       <c r="T27" t="n">
-        <v>3871</v>
+        <v>4715</v>
       </c>
       <c r="U27" t="inlineStr"/>
       <c r="V27" t="n">
-        <v>1314</v>
+        <v>1565</v>
       </c>
       <c r="W27" t="n">
-        <v>1314</v>
+        <v>1565</v>
       </c>
       <c r="X27" t="inlineStr"/>
       <c r="Y27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z27" t="n">
-        <v>23803</v>
+        <v>22090</v>
       </c>
       <c r="AA27" t="n">
-        <v>24296</v>
+        <v>21785</v>
       </c>
       <c r="AB27" t="n">
         <v>0</v>
       </c>
       <c r="AC27" t="n">
-        <v>21</v>
+        <v>43</v>
       </c>
       <c r="AD27" t="inlineStr"/>
       <c r="AE27" t="n">
-        <v>153</v>
+        <v>478</v>
       </c>
       <c r="AF27" t="n">
-        <v>355</v>
+        <v>188</v>
       </c>
       <c r="AG27" t="n">
-        <v>295</v>
+        <v>5</v>
       </c>
       <c r="AH27" t="n">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="AI27" t="n">
         <v>1</v>
       </c>
       <c r="AJ27" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK27" t="inlineStr"/>
-      <c r="AL27" t="inlineStr"/>
+        <v>3</v>
+      </c>
+      <c r="AK27" t="n">
+        <v>1</v>
+      </c>
+      <c r="AL27" t="n">
+        <v>1</v>
+      </c>
       <c r="AM27" t="n">
-        <v>667</v>
+        <v>216</v>
       </c>
       <c r="AN27" t="n">
         <v>1</v>
@@ -4084,7 +4068,7 @@
         <v>0</v>
       </c>
       <c r="AZ27" t="n">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="BA27" t="n">
         <v>0</v>
@@ -4092,85 +4076,93 @@
     </row>
     <row r="28">
       <c r="A28" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B28" t="n">
         <v>1</v>
       </c>
       <c r="C28" s="2" t="n">
-        <v>41277</v>
+        <v>39819</v>
       </c>
       <c r="D28" s="2" t="n">
-        <v>41642</v>
+        <v>40178</v>
       </c>
       <c r="E28" t="n">
-        <v>2226</v>
+        <v>3222</v>
       </c>
       <c r="F28" t="n">
-        <v>505</v>
+        <v>2879</v>
       </c>
       <c r="G28" t="n">
-        <v>2</v>
+        <v>321</v>
       </c>
       <c r="H28" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
-        <v>1710</v>
+        <v>7</v>
       </c>
       <c r="K28" t="n">
-        <v>5479</v>
+        <v>7870</v>
       </c>
       <c r="L28" t="n">
-        <v>5471</v>
-      </c>
-      <c r="M28" t="inlineStr"/>
+        <v>7111</v>
+      </c>
+      <c r="M28" t="n">
+        <v>759</v>
+      </c>
       <c r="N28" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="O28" t="n">
-        <v>6726</v>
+        <v>7223</v>
       </c>
       <c r="P28" t="n">
-        <v>6712</v>
-      </c>
-      <c r="Q28" t="inlineStr"/>
+        <v>7146</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>76</v>
+      </c>
       <c r="R28" t="n">
-        <v>14</v>
+        <v>1</v>
       </c>
       <c r="S28" t="n">
-        <v>3881</v>
+        <v>4442</v>
       </c>
       <c r="T28" t="n">
-        <v>3879</v>
-      </c>
-      <c r="U28" t="inlineStr"/>
+        <v>4434</v>
+      </c>
+      <c r="U28" t="n">
+        <v>8</v>
+      </c>
       <c r="V28" t="n">
-        <v>762</v>
+        <v>2194</v>
       </c>
       <c r="W28" t="n">
-        <v>761</v>
-      </c>
-      <c r="X28" t="inlineStr"/>
+        <v>1480</v>
+      </c>
+      <c r="X28" t="n">
+        <v>714</v>
+      </c>
       <c r="Y28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z28" t="n">
-        <v>19074</v>
+        <v>24951</v>
       </c>
       <c r="AA28" t="n">
-        <v>17328</v>
+        <v>23050</v>
       </c>
       <c r="AB28" t="n">
-        <v>2</v>
+        <v>1878</v>
       </c>
       <c r="AC28" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="AD28" t="inlineStr"/>
       <c r="AE28" t="n">
-        <v>1733</v>
+        <v>8</v>
       </c>
       <c r="AF28" t="n">
         <v>0</v>
@@ -4179,16 +4171,12 @@
       <c r="AH28" t="inlineStr"/>
       <c r="AI28" t="inlineStr"/>
       <c r="AJ28" t="inlineStr"/>
-      <c r="AK28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK28" t="inlineStr"/>
       <c r="AL28" t="inlineStr"/>
       <c r="AM28" t="n">
         <v>0</v>
       </c>
-      <c r="AN28" t="n">
-        <v>1</v>
-      </c>
+      <c r="AN28" t="inlineStr"/>
       <c r="AO28" t="inlineStr"/>
       <c r="AP28" t="inlineStr"/>
       <c r="AQ28" t="inlineStr"/>
@@ -4209,7 +4197,7 @@
         <v>0</v>
       </c>
       <c r="AZ28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="BA28" t="n">
         <v>0</v>
@@ -4217,103 +4205,109 @@
     </row>
     <row r="29">
       <c r="A29" t="n">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="B29" t="n">
         <v>2</v>
       </c>
       <c r="C29" s="2" t="n">
-        <v>41642</v>
+        <v>40183</v>
       </c>
       <c r="D29" s="2" t="n">
-        <v>42006</v>
+        <v>40543</v>
       </c>
       <c r="E29" t="n">
-        <v>4237</v>
+        <v>2675</v>
       </c>
       <c r="F29" t="n">
-        <v>3076</v>
+        <v>2800</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
-        <v>1149</v>
+        <v>180</v>
       </c>
       <c r="K29" t="n">
-        <v>4424</v>
+        <v>6600</v>
       </c>
       <c r="L29" t="n">
-        <v>4200</v>
+        <v>7318</v>
       </c>
       <c r="M29" t="inlineStr"/>
       <c r="N29" t="n">
-        <v>223</v>
+        <v>41</v>
       </c>
       <c r="O29" t="n">
-        <v>6379</v>
+        <v>7486</v>
       </c>
       <c r="P29" t="n">
-        <v>6325</v>
+        <v>7553</v>
       </c>
       <c r="Q29" t="inlineStr"/>
       <c r="R29" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="S29" t="n">
-        <v>3877</v>
+        <v>4448</v>
       </c>
       <c r="T29" t="n">
-        <v>3875</v>
+        <v>4454</v>
       </c>
       <c r="U29" t="inlineStr"/>
       <c r="V29" t="n">
-        <v>879</v>
+        <v>627</v>
       </c>
       <c r="W29" t="n">
-        <v>878</v>
+        <v>1202</v>
       </c>
       <c r="X29" t="inlineStr"/>
       <c r="Y29" t="n">
-        <v>1</v>
+        <v>139</v>
       </c>
       <c r="Z29" t="n">
-        <v>19796</v>
+        <v>21836</v>
       </c>
       <c r="AA29" t="n">
-        <v>18354</v>
+        <v>23327</v>
       </c>
       <c r="AB29" t="n">
         <v>0</v>
       </c>
       <c r="AC29" t="n">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="AD29" t="inlineStr"/>
       <c r="AE29" t="n">
-        <v>1428</v>
+        <v>366</v>
       </c>
       <c r="AF29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AG29" t="inlineStr"/>
-      <c r="AH29" t="inlineStr"/>
+        <v>321</v>
+      </c>
+      <c r="AG29" t="n">
+        <v>759</v>
+      </c>
+      <c r="AH29" t="n">
+        <v>76</v>
+      </c>
       <c r="AI29" t="n">
-        <v>1</v>
-      </c>
-      <c r="AJ29" t="inlineStr"/>
+        <v>5</v>
+      </c>
+      <c r="AJ29" t="n">
+        <v>8</v>
+      </c>
       <c r="AK29" t="inlineStr"/>
-      <c r="AL29" t="inlineStr"/>
+      <c r="AL29" t="n">
+        <v>714</v>
+      </c>
       <c r="AM29" t="n">
-        <v>2</v>
-      </c>
-      <c r="AN29" t="n">
-        <v>1</v>
-      </c>
+        <v>1878</v>
+      </c>
+      <c r="AN29" t="inlineStr"/>
       <c r="AO29" t="inlineStr"/>
       <c r="AP29" t="inlineStr"/>
       <c r="AQ29" t="inlineStr"/>
@@ -4342,93 +4336,91 @@
     </row>
     <row r="30">
       <c r="A30" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B30" t="n">
         <v>1</v>
       </c>
       <c r="C30" s="2" t="n">
-        <v>42010</v>
+        <v>40548</v>
       </c>
       <c r="D30" s="2" t="n">
-        <v>42369</v>
+        <v>40911</v>
       </c>
       <c r="E30" t="n">
-        <v>4168</v>
+        <v>3972</v>
       </c>
       <c r="F30" t="n">
-        <v>3556</v>
+        <v>3582</v>
       </c>
       <c r="G30" t="n">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="H30" t="n">
-        <v>332</v>
+        <v>23</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="K30" t="n">
-        <v>5734</v>
+        <v>5983</v>
       </c>
       <c r="L30" t="n">
-        <v>5550</v>
+        <v>5688</v>
       </c>
       <c r="M30" t="n">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="N30" t="n">
         <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>5214</v>
+        <v>5908</v>
       </c>
       <c r="P30" t="n">
-        <v>3474</v>
+        <v>5892</v>
       </c>
       <c r="Q30" t="n">
-        <v>1740</v>
+        <v>16</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
       </c>
       <c r="S30" t="n">
-        <v>3936</v>
+        <v>3405</v>
       </c>
       <c r="T30" t="n">
-        <v>3931</v>
+        <v>3404</v>
       </c>
       <c r="U30" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V30" t="n">
-        <v>1070</v>
+        <v>1249</v>
       </c>
       <c r="W30" t="n">
-        <v>1067</v>
-      </c>
-      <c r="X30" t="n">
-        <v>3</v>
-      </c>
+        <v>1249</v>
+      </c>
+      <c r="X30" t="inlineStr"/>
       <c r="Y30" t="n">
         <v>0</v>
       </c>
       <c r="Z30" t="n">
-        <v>20122</v>
+        <v>20517</v>
       </c>
       <c r="AA30" t="n">
-        <v>17578</v>
+        <v>19815</v>
       </c>
       <c r="AB30" t="n">
-        <v>2207</v>
+        <v>667</v>
       </c>
       <c r="AC30" t="n">
-        <v>335</v>
+        <v>23</v>
       </c>
       <c r="AD30" t="inlineStr"/>
       <c r="AE30" t="n">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="AF30" t="n">
         <v>0</v>
@@ -4439,12 +4431,8 @@
       <c r="AJ30" t="inlineStr"/>
       <c r="AK30" t="inlineStr"/>
       <c r="AL30" t="inlineStr"/>
-      <c r="AM30" t="n">
-        <v>0</v>
-      </c>
-      <c r="AN30" t="n">
-        <v>3</v>
-      </c>
+      <c r="AM30" t="inlineStr"/>
+      <c r="AN30" t="inlineStr"/>
       <c r="AO30" t="inlineStr"/>
       <c r="AP30" t="inlineStr"/>
       <c r="AQ30" t="inlineStr"/>
@@ -4473,109 +4461,109 @@
     </row>
     <row r="31">
       <c r="A31" t="n">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B31" t="n">
         <v>2</v>
       </c>
       <c r="C31" s="2" t="n">
-        <v>42373</v>
+        <v>40911</v>
       </c>
       <c r="D31" s="2" t="n">
-        <v>42738</v>
+        <v>41277</v>
       </c>
       <c r="E31" t="n">
-        <v>2488</v>
+        <v>5019</v>
       </c>
       <c r="F31" t="n">
-        <v>2458</v>
+        <v>5225</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="I31" t="inlineStr"/>
       <c r="J31" t="n">
-        <v>295</v>
+        <v>130</v>
       </c>
       <c r="K31" t="n">
-        <v>7387</v>
+        <v>6298</v>
       </c>
       <c r="L31" t="n">
-        <v>7495</v>
+        <v>6582</v>
       </c>
       <c r="M31" t="inlineStr"/>
       <c r="N31" t="n">
-        <v>73</v>
+        <v>10</v>
       </c>
       <c r="O31" t="n">
-        <v>4159</v>
+        <v>7300</v>
       </c>
       <c r="P31" t="n">
-        <v>5878</v>
+        <v>7304</v>
       </c>
       <c r="Q31" t="inlineStr"/>
       <c r="R31" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="S31" t="n">
-        <v>4403</v>
+        <v>3872</v>
       </c>
       <c r="T31" t="n">
-        <v>4401</v>
+        <v>3871</v>
       </c>
       <c r="U31" t="inlineStr"/>
       <c r="V31" t="n">
-        <v>1243</v>
+        <v>1314</v>
       </c>
       <c r="W31" t="n">
-        <v>1245</v>
+        <v>1314</v>
       </c>
       <c r="X31" t="inlineStr"/>
       <c r="Y31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Z31" t="n">
-        <v>19680</v>
+        <v>23803</v>
       </c>
       <c r="AA31" t="n">
-        <v>21477</v>
+        <v>24296</v>
       </c>
       <c r="AB31" t="n">
         <v>0</v>
       </c>
       <c r="AC31" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="AD31" t="inlineStr"/>
       <c r="AE31" t="n">
-        <v>395</v>
+        <v>153</v>
       </c>
       <c r="AF31" t="n">
-        <v>278</v>
+        <v>355</v>
       </c>
       <c r="AG31" t="n">
-        <v>181</v>
+        <v>295</v>
       </c>
       <c r="AH31" t="n">
-        <v>1740</v>
-      </c>
-      <c r="AI31" t="inlineStr"/>
+        <v>16</v>
+      </c>
+      <c r="AI31" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ31" t="n">
-        <v>5</v>
-      </c>
-      <c r="AK31" t="n">
-        <v>2</v>
-      </c>
-      <c r="AL31" t="n">
-        <v>3</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="AK31" t="inlineStr"/>
+      <c r="AL31" t="inlineStr"/>
       <c r="AM31" t="n">
-        <v>2207</v>
-      </c>
-      <c r="AN31" t="inlineStr"/>
+        <v>667</v>
+      </c>
+      <c r="AN31" t="n">
+        <v>1</v>
+      </c>
       <c r="AO31" t="inlineStr"/>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -4596,7 +4584,7 @@
         <v>0</v>
       </c>
       <c r="AZ31" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BA31" t="n">
         <v>0</v>
@@ -4604,102 +4592,96 @@
     </row>
     <row r="32">
       <c r="A32" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B32" t="n">
         <v>1</v>
       </c>
       <c r="C32" s="2" t="n">
-        <v>42738</v>
+        <v>41277</v>
       </c>
       <c r="D32" s="2" t="n">
-        <v>43103</v>
+        <v>41642</v>
       </c>
       <c r="E32" t="n">
-        <v>1805</v>
+        <v>2226</v>
       </c>
       <c r="F32" t="n">
-        <v>1522</v>
+        <v>505</v>
       </c>
       <c r="G32" t="n">
-        <v>148</v>
+        <v>2</v>
       </c>
       <c r="H32" t="n">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="I32" t="inlineStr"/>
       <c r="J32" t="n">
-        <v>99</v>
+        <v>1710</v>
       </c>
       <c r="K32" t="n">
-        <v>5978</v>
+        <v>5479</v>
       </c>
       <c r="L32" t="n">
-        <v>5899</v>
-      </c>
-      <c r="M32" t="n">
-        <v>76</v>
-      </c>
+        <v>5471</v>
+      </c>
+      <c r="M32" t="inlineStr"/>
       <c r="N32" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="O32" t="n">
-        <v>6617</v>
+        <v>6726</v>
       </c>
       <c r="P32" t="n">
-        <v>6604</v>
-      </c>
-      <c r="Q32" t="n">
-        <v>12</v>
-      </c>
+        <v>6712</v>
+      </c>
+      <c r="Q32" t="inlineStr"/>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="S32" t="n">
-        <v>4285</v>
+        <v>3881</v>
       </c>
       <c r="T32" t="n">
-        <v>4273</v>
-      </c>
-      <c r="U32" t="n">
-        <v>11</v>
-      </c>
+        <v>3879</v>
+      </c>
+      <c r="U32" t="inlineStr"/>
       <c r="V32" t="n">
-        <v>1314</v>
+        <v>762</v>
       </c>
       <c r="W32" t="n">
-        <v>1314</v>
+        <v>761</v>
       </c>
       <c r="X32" t="inlineStr"/>
       <c r="Y32" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z32" t="n">
-        <v>19999</v>
+        <v>19074</v>
       </c>
       <c r="AA32" t="n">
-        <v>19612</v>
+        <v>17328</v>
       </c>
       <c r="AB32" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="AC32" t="n">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="AD32" t="inlineStr"/>
       <c r="AE32" t="n">
-        <v>102</v>
+        <v>1733</v>
       </c>
       <c r="AF32" t="n">
         <v>0</v>
       </c>
       <c r="AG32" t="inlineStr"/>
       <c r="AH32" t="inlineStr"/>
-      <c r="AI32" t="n">
-        <v>1</v>
-      </c>
+      <c r="AI32" t="inlineStr"/>
       <c r="AJ32" t="inlineStr"/>
-      <c r="AK32" t="inlineStr"/>
+      <c r="AK32" t="n">
+        <v>1</v>
+      </c>
       <c r="AL32" t="inlineStr"/>
       <c r="AM32" t="n">
         <v>0</v>
@@ -4735,111 +4717,99 @@
     </row>
     <row r="33">
       <c r="A33" t="n">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B33" t="n">
         <v>2</v>
       </c>
       <c r="C33" s="2" t="n">
-        <v>43103</v>
+        <v>41642</v>
       </c>
       <c r="D33" s="2" t="n">
-        <v>43468</v>
+        <v>42006</v>
       </c>
       <c r="E33" t="n">
-        <v>2587</v>
+        <v>4237</v>
       </c>
       <c r="F33" t="n">
-        <v>2407</v>
+        <v>3076</v>
       </c>
       <c r="G33" t="n">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="H33" t="n">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>1149</v>
       </c>
       <c r="K33" t="n">
-        <v>6198</v>
+        <v>4424</v>
       </c>
       <c r="L33" t="n">
-        <v>6264</v>
-      </c>
-      <c r="M33" t="n">
-        <v>9</v>
-      </c>
+        <v>4200</v>
+      </c>
+      <c r="M33" t="inlineStr"/>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="O33" t="n">
-        <v>7271</v>
+        <v>6379</v>
       </c>
       <c r="P33" t="n">
-        <v>7273</v>
-      </c>
-      <c r="Q33" t="n">
-        <v>10</v>
-      </c>
+        <v>6325</v>
+      </c>
+      <c r="Q33" t="inlineStr"/>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="S33" t="n">
-        <v>4452</v>
+        <v>3877</v>
       </c>
       <c r="T33" t="n">
-        <v>4462</v>
-      </c>
-      <c r="U33" t="n">
-        <v>1</v>
-      </c>
+        <v>3875</v>
+      </c>
+      <c r="U33" t="inlineStr"/>
       <c r="V33" t="n">
-        <v>1347</v>
+        <v>879</v>
       </c>
       <c r="W33" t="n">
-        <v>1345</v>
-      </c>
-      <c r="X33" t="n">
-        <v>2</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="X33" t="inlineStr"/>
       <c r="Y33" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Z33" t="n">
-        <v>21855</v>
+        <v>19796</v>
       </c>
       <c r="AA33" t="n">
-        <v>21751</v>
+        <v>18354</v>
       </c>
       <c r="AB33" t="n">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="AC33" t="n">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="AD33" t="inlineStr"/>
       <c r="AE33" t="n">
-        <v>0</v>
+        <v>1428</v>
       </c>
       <c r="AF33" t="n">
-        <v>148</v>
-      </c>
-      <c r="AG33" t="n">
-        <v>76</v>
-      </c>
-      <c r="AH33" t="n">
-        <v>12</v>
-      </c>
-      <c r="AI33" t="inlineStr"/>
-      <c r="AJ33" t="n">
-        <v>11</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="AG33" t="inlineStr"/>
+      <c r="AH33" t="inlineStr"/>
+      <c r="AI33" t="n">
+        <v>1</v>
+      </c>
+      <c r="AJ33" t="inlineStr"/>
       <c r="AK33" t="inlineStr"/>
       <c r="AL33" t="inlineStr"/>
       <c r="AM33" t="n">
-        <v>247</v>
+        <v>2</v>
       </c>
       <c r="AN33" t="n">
         <v>1</v>
@@ -4864,7 +4834,7 @@
         <v>0</v>
       </c>
       <c r="AZ33" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA33" t="n">
         <v>0</v>
@@ -4872,71 +4842,71 @@
     </row>
     <row r="34">
       <c r="A34" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" t="n">
         <v>1</v>
       </c>
       <c r="C34" s="2" t="n">
-        <v>43468</v>
+        <v>42010</v>
       </c>
       <c r="D34" s="2" t="n">
-        <v>43833</v>
+        <v>42369</v>
       </c>
       <c r="E34" t="n">
-        <v>2166</v>
+        <v>4168</v>
       </c>
       <c r="F34" t="n">
-        <v>1668</v>
+        <v>3556</v>
       </c>
       <c r="G34" t="n">
-        <v>390</v>
+        <v>278</v>
       </c>
       <c r="H34" t="n">
-        <v>22</v>
+        <v>332</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="K34" t="n">
-        <v>5979</v>
+        <v>5734</v>
       </c>
       <c r="L34" t="n">
-        <v>5977</v>
+        <v>5550</v>
       </c>
       <c r="M34" t="n">
-        <v>2</v>
+        <v>181</v>
       </c>
       <c r="N34" t="n">
         <v>0</v>
       </c>
       <c r="O34" t="n">
-        <v>6569</v>
+        <v>5214</v>
       </c>
       <c r="P34" t="n">
-        <v>6557</v>
+        <v>3474</v>
       </c>
       <c r="Q34" t="n">
-        <v>12</v>
+        <v>1740</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>4616</v>
+        <v>3936</v>
       </c>
       <c r="T34" t="n">
-        <v>4611</v>
+        <v>3931</v>
       </c>
       <c r="U34" t="n">
         <v>5</v>
       </c>
       <c r="V34" t="n">
-        <v>1432</v>
+        <v>1070</v>
       </c>
       <c r="W34" t="n">
-        <v>1429</v>
+        <v>1067</v>
       </c>
       <c r="X34" t="n">
         <v>3</v>
@@ -4945,20 +4915,20 @@
         <v>0</v>
       </c>
       <c r="Z34" t="n">
-        <v>20762</v>
+        <v>20122</v>
       </c>
       <c r="AA34" t="n">
-        <v>20242</v>
+        <v>17578</v>
       </c>
       <c r="AB34" t="n">
-        <v>93</v>
+        <v>2207</v>
       </c>
       <c r="AC34" t="n">
-        <v>22</v>
+        <v>335</v>
       </c>
       <c r="AD34" t="inlineStr"/>
       <c r="AE34" t="n">
-        <v>405</v>
+        <v>2</v>
       </c>
       <c r="AF34" t="n">
         <v>0</v>
@@ -4972,7 +4942,9 @@
       <c r="AM34" t="n">
         <v>0</v>
       </c>
-      <c r="AN34" t="inlineStr"/>
+      <c r="AN34" t="n">
+        <v>3</v>
+      </c>
       <c r="AO34" t="inlineStr"/>
       <c r="AP34" t="inlineStr"/>
       <c r="AQ34" t="inlineStr"/>
@@ -5001,112 +4973,112 @@
     </row>
     <row r="35">
       <c r="A35" t="n">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B35" t="n">
         <v>2</v>
       </c>
       <c r="C35" s="2" t="n">
-        <v>43833</v>
+        <v>42373</v>
       </c>
       <c r="D35" s="2" t="n">
-        <v>44199</v>
+        <v>42738</v>
       </c>
       <c r="E35" t="n">
-        <v>2145</v>
+        <v>2488</v>
       </c>
       <c r="F35" t="n">
-        <v>2029</v>
+        <v>2458</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="I35" t="inlineStr"/>
       <c r="J35" t="n">
-        <v>185</v>
+        <v>295</v>
       </c>
       <c r="K35" t="n">
-        <v>5669</v>
+        <v>7387</v>
       </c>
       <c r="L35" t="n">
-        <v>5654</v>
+        <v>7495</v>
       </c>
       <c r="M35" t="inlineStr"/>
       <c r="N35" t="n">
-        <v>15</v>
+        <v>73</v>
       </c>
       <c r="O35" t="n">
-        <v>6386</v>
+        <v>4159</v>
       </c>
       <c r="P35" t="n">
-        <v>6381</v>
+        <v>5878</v>
       </c>
       <c r="Q35" t="inlineStr"/>
       <c r="R35" t="n">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="S35" t="n">
-        <v>4680</v>
+        <v>4403</v>
       </c>
       <c r="T35" t="n">
-        <v>4680</v>
+        <v>4401</v>
       </c>
       <c r="U35" t="inlineStr"/>
       <c r="V35" t="n">
-        <v>2258</v>
+        <v>1243</v>
       </c>
       <c r="W35" t="n">
-        <v>2157</v>
+        <v>1245</v>
       </c>
       <c r="X35" t="inlineStr"/>
       <c r="Y35" t="n">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="Z35" t="n">
-        <v>21854</v>
+        <v>19680</v>
       </c>
       <c r="AA35" t="n">
-        <v>21617</v>
+        <v>21477</v>
       </c>
       <c r="AB35" t="n">
         <v>0</v>
       </c>
       <c r="AC35" t="n">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="AD35" t="inlineStr"/>
       <c r="AE35" t="n">
-        <v>309</v>
+        <v>395</v>
       </c>
       <c r="AF35" t="n">
-        <v>88</v>
-      </c>
-      <c r="AG35" t="inlineStr"/>
+        <v>278</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>181</v>
+      </c>
       <c r="AH35" t="n">
+        <v>1740</v>
+      </c>
+      <c r="AI35" t="inlineStr"/>
+      <c r="AJ35" t="n">
+        <v>5</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL35" t="n">
         <v>3</v>
       </c>
-      <c r="AI35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AJ35" t="n">
-        <v>2</v>
-      </c>
-      <c r="AK35" t="inlineStr"/>
-      <c r="AL35" t="inlineStr"/>
       <c r="AM35" t="n">
-        <v>93</v>
+        <v>2207</v>
       </c>
       <c r="AN35" t="inlineStr"/>
       <c r="AO35" t="inlineStr"/>
-      <c r="AP35" t="n">
-        <v>716</v>
-      </c>
-      <c r="AQ35" t="n">
-        <v>716</v>
-      </c>
+      <c r="AP35" t="inlineStr"/>
+      <c r="AQ35" t="inlineStr"/>
       <c r="AR35" t="inlineStr"/>
       <c r="AS35" t="inlineStr"/>
       <c r="AT35" t="inlineStr"/>
@@ -5124,7 +5096,7 @@
         <v>0</v>
       </c>
       <c r="AZ35" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BA35" t="n">
         <v>0</v>
@@ -5132,93 +5104,91 @@
     </row>
     <row r="36">
       <c r="A36" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B36" t="n">
         <v>1</v>
       </c>
       <c r="C36" s="2" t="n">
-        <v>44199</v>
+        <v>42738</v>
       </c>
       <c r="D36" s="2" t="n">
-        <v>44564</v>
+        <v>43103</v>
       </c>
       <c r="E36" t="n">
-        <v>3479</v>
+        <v>1805</v>
       </c>
       <c r="F36" t="n">
-        <v>2837</v>
+        <v>1522</v>
       </c>
       <c r="G36" t="n">
-        <v>594</v>
+        <v>148</v>
       </c>
       <c r="H36" t="n">
-        <v>47</v>
+        <v>36</v>
       </c>
       <c r="I36" t="inlineStr"/>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="K36" t="n">
-        <v>6295</v>
+        <v>5978</v>
       </c>
       <c r="L36" t="n">
-        <v>6290</v>
+        <v>5899</v>
       </c>
       <c r="M36" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="O36" t="n">
-        <v>8607</v>
+        <v>6617</v>
       </c>
       <c r="P36" t="n">
-        <v>6614</v>
+        <v>6604</v>
       </c>
       <c r="Q36" t="n">
-        <v>1992</v>
+        <v>12</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
       </c>
       <c r="S36" t="n">
-        <v>4411</v>
+        <v>4285</v>
       </c>
       <c r="T36" t="n">
-        <v>4409</v>
+        <v>4273</v>
       </c>
       <c r="U36" t="n">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="V36" t="n">
-        <v>1644</v>
+        <v>1314</v>
       </c>
       <c r="W36" t="n">
-        <v>1323</v>
-      </c>
-      <c r="X36" t="n">
-        <v>321</v>
-      </c>
+        <v>1314</v>
+      </c>
+      <c r="X36" t="inlineStr"/>
       <c r="Y36" t="n">
         <v>0</v>
       </c>
       <c r="Z36" t="n">
-        <v>26351</v>
+        <v>19999</v>
       </c>
       <c r="AA36" t="n">
-        <v>22568</v>
+        <v>19612</v>
       </c>
       <c r="AB36" t="n">
-        <v>2915</v>
+        <v>247</v>
       </c>
       <c r="AC36" t="n">
-        <v>868</v>
+        <v>38</v>
       </c>
       <c r="AD36" t="inlineStr"/>
       <c r="AE36" t="n">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="AF36" t="n">
         <v>0</v>
@@ -5229,27 +5199,19 @@
         <v>1</v>
       </c>
       <c r="AJ36" t="inlineStr"/>
-      <c r="AK36" t="n">
-        <v>1</v>
-      </c>
+      <c r="AK36" t="inlineStr"/>
       <c r="AL36" t="inlineStr"/>
       <c r="AM36" t="n">
         <v>0</v>
       </c>
-      <c r="AN36" t="inlineStr"/>
+      <c r="AN36" t="n">
+        <v>1</v>
+      </c>
       <c r="AO36" t="inlineStr"/>
-      <c r="AP36" t="n">
-        <v>1916</v>
-      </c>
-      <c r="AQ36" t="n">
-        <v>1095</v>
-      </c>
-      <c r="AR36" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS36" t="n">
-        <v>819</v>
-      </c>
+      <c r="AP36" t="inlineStr"/>
+      <c r="AQ36" t="inlineStr"/>
+      <c r="AR36" t="inlineStr"/>
+      <c r="AS36" t="inlineStr"/>
       <c r="AT36" t="inlineStr"/>
       <c r="AU36" t="inlineStr"/>
       <c r="AV36" t="n">
@@ -5265,7 +5227,7 @@
         <v>0</v>
       </c>
       <c r="AZ36" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="BA36" t="n">
         <v>0</v>
@@ -5273,127 +5235,121 @@
     </row>
     <row r="37">
       <c r="A37" t="n">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B37" t="n">
         <v>2</v>
       </c>
       <c r="C37" s="2" t="n">
-        <v>44564</v>
+        <v>43103</v>
       </c>
       <c r="D37" s="2" t="n">
-        <v>44929</v>
+        <v>43468</v>
       </c>
       <c r="E37" t="n">
-        <v>1837</v>
+        <v>2587</v>
       </c>
       <c r="F37" t="n">
-        <v>1694</v>
+        <v>2407</v>
       </c>
       <c r="G37" t="n">
-        <v>585</v>
+        <v>305</v>
       </c>
       <c r="H37" t="n">
-        <v>30</v>
+        <v>23</v>
       </c>
       <c r="I37" t="inlineStr"/>
       <c r="J37" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>6372</v>
+        <v>6198</v>
       </c>
       <c r="L37" t="n">
-        <v>6327</v>
+        <v>6264</v>
       </c>
       <c r="M37" t="n">
-        <v>50</v>
+        <v>9</v>
       </c>
       <c r="N37" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O37" t="n">
-        <v>6242</v>
+        <v>7271</v>
       </c>
       <c r="P37" t="n">
-        <v>6145</v>
+        <v>7273</v>
       </c>
       <c r="Q37" t="n">
-        <v>2089</v>
+        <v>10</v>
       </c>
       <c r="R37" t="n">
-        <v>2089</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>4523</v>
+        <v>4452</v>
       </c>
       <c r="T37" t="n">
-        <v>4523</v>
-      </c>
-      <c r="U37" t="inlineStr"/>
+        <v>4462</v>
+      </c>
+      <c r="U37" t="n">
+        <v>1</v>
+      </c>
       <c r="V37" t="n">
-        <v>234</v>
+        <v>1347</v>
       </c>
       <c r="W37" t="n">
-        <v>553</v>
+        <v>1345</v>
       </c>
       <c r="X37" t="n">
         <v>2</v>
       </c>
       <c r="Y37" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z37" t="n">
-        <v>19678</v>
+        <v>21855</v>
       </c>
       <c r="AA37" t="n">
-        <v>19714</v>
+        <v>21751</v>
       </c>
       <c r="AB37" t="n">
-        <v>2726</v>
+        <v>225</v>
       </c>
       <c r="AC37" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="AD37" t="inlineStr"/>
       <c r="AE37" t="n">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="AF37" t="n">
-        <v>472</v>
+        <v>148</v>
       </c>
       <c r="AG37" t="n">
-        <v>5</v>
+        <v>76</v>
       </c>
       <c r="AH37" t="n">
-        <v>1992</v>
+        <v>12</v>
       </c>
       <c r="AI37" t="inlineStr"/>
       <c r="AJ37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AK37" t="n">
-        <v>1</v>
-      </c>
-      <c r="AL37" t="n">
-        <v>321</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="AK37" t="inlineStr"/>
+      <c r="AL37" t="inlineStr"/>
       <c r="AM37" t="n">
-        <v>2793</v>
-      </c>
-      <c r="AN37" t="inlineStr"/>
+        <v>247</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1</v>
+      </c>
       <c r="AO37" t="inlineStr"/>
-      <c r="AP37" t="n">
-        <v>470</v>
-      </c>
-      <c r="AQ37" t="n">
-        <v>472</v>
-      </c>
+      <c r="AP37" t="inlineStr"/>
+      <c r="AQ37" t="inlineStr"/>
       <c r="AR37" t="inlineStr"/>
       <c r="AS37" t="inlineStr"/>
-      <c r="AT37" t="n">
-        <v>2</v>
-      </c>
+      <c r="AT37" t="inlineStr"/>
       <c r="AU37" t="inlineStr"/>
       <c r="AV37" t="n">
         <v>0</v>
@@ -5416,87 +5372,93 @@
     </row>
     <row r="38">
       <c r="A38" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B38" t="n">
         <v>1</v>
       </c>
       <c r="C38" s="2" t="n">
-        <v>30319</v>
+        <v>43468</v>
       </c>
       <c r="D38" s="2" t="n">
-        <v>30638</v>
+        <v>43833</v>
       </c>
       <c r="E38" t="n">
-        <v>3454</v>
+        <v>2166</v>
       </c>
       <c r="F38" t="n">
-        <v>2978</v>
+        <v>1668</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="H38" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="I38" t="inlineStr"/>
       <c r="J38" t="n">
         <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>12819</v>
+        <v>5979</v>
       </c>
       <c r="L38" t="n">
-        <v>12792</v>
+        <v>5977</v>
       </c>
       <c r="M38" t="n">
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
       </c>
       <c r="O38" t="n">
-        <v>14784</v>
+        <v>6569</v>
       </c>
       <c r="P38" t="n">
-        <v>14782</v>
-      </c>
-      <c r="Q38" t="inlineStr"/>
+        <v>6557</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>12</v>
+      </c>
       <c r="R38" t="n">
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>21994</v>
+        <v>4616</v>
       </c>
       <c r="T38" t="n">
-        <v>21994</v>
-      </c>
-      <c r="U38" t="inlineStr"/>
+        <v>4611</v>
+      </c>
+      <c r="U38" t="n">
+        <v>5</v>
+      </c>
       <c r="V38" t="n">
-        <v>2990</v>
+        <v>1432</v>
       </c>
       <c r="W38" t="n">
-        <v>2990</v>
-      </c>
-      <c r="X38" t="inlineStr"/>
+        <v>1429</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3</v>
+      </c>
       <c r="Y38" t="n">
         <v>0</v>
       </c>
       <c r="Z38" t="n">
-        <v>56041</v>
+        <v>20762</v>
       </c>
       <c r="AA38" t="n">
-        <v>55536</v>
+        <v>20242</v>
       </c>
       <c r="AB38" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="AC38" t="n">
-        <v>2</v>
+        <v>22</v>
       </c>
       <c r="AD38" t="inlineStr"/>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>405</v>
       </c>
       <c r="AF38" t="n">
         <v>0</v>
@@ -5507,7 +5469,9 @@
       <c r="AJ38" t="inlineStr"/>
       <c r="AK38" t="inlineStr"/>
       <c r="AL38" t="inlineStr"/>
-      <c r="AM38" t="inlineStr"/>
+      <c r="AM38" t="n">
+        <v>0</v>
+      </c>
       <c r="AN38" t="inlineStr"/>
       <c r="AO38" t="inlineStr"/>
       <c r="AP38" t="inlineStr"/>
@@ -5515,9 +5479,7 @@
       <c r="AR38" t="inlineStr"/>
       <c r="AS38" t="inlineStr"/>
       <c r="AT38" t="inlineStr"/>
-      <c r="AU38" t="n">
-        <v>1</v>
-      </c>
+      <c r="AU38" t="inlineStr"/>
       <c r="AV38" t="n">
         <v>0</v>
       </c>
@@ -5525,127 +5487,135 @@
         <v>0</v>
       </c>
       <c r="AX38" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AY38" t="n">
-        <v>474</v>
+        <v>0</v>
       </c>
       <c r="AZ38" t="n">
         <v>0</v>
       </c>
       <c r="BA38" t="n">
-        <v>477</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="B39" t="n">
         <v>2</v>
       </c>
       <c r="C39" s="2" t="n">
-        <v>30704</v>
+        <v>43833</v>
       </c>
       <c r="D39" s="2" t="n">
-        <v>30967</v>
+        <v>44199</v>
       </c>
       <c r="E39" t="n">
-        <v>4127</v>
+        <v>2145</v>
       </c>
       <c r="F39" t="n">
-        <v>4001</v>
+        <v>2029</v>
       </c>
       <c r="G39" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="H39" t="n">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="I39" t="inlineStr"/>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="K39" t="n">
-        <v>11818</v>
+        <v>5669</v>
       </c>
       <c r="L39" t="n">
-        <v>11844</v>
+        <v>5654</v>
       </c>
       <c r="M39" t="inlineStr"/>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="O39" t="n">
-        <v>14031</v>
+        <v>6386</v>
       </c>
       <c r="P39" t="n">
-        <v>14031</v>
+        <v>6381</v>
       </c>
       <c r="Q39" t="inlineStr"/>
       <c r="R39" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="S39" t="n">
-        <v>8855</v>
+        <v>4680</v>
       </c>
       <c r="T39" t="n">
-        <v>8855</v>
+        <v>4680</v>
       </c>
       <c r="U39" t="inlineStr"/>
       <c r="V39" t="n">
-        <v>2995</v>
+        <v>2258</v>
       </c>
       <c r="W39" t="n">
-        <v>2995</v>
+        <v>2157</v>
       </c>
       <c r="X39" t="inlineStr"/>
       <c r="Y39" t="n">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Z39" t="n">
-        <v>41826</v>
+        <v>21854</v>
       </c>
       <c r="AA39" t="n">
-        <v>41726</v>
+        <v>21617</v>
       </c>
       <c r="AB39" t="n">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="AC39" t="n">
-        <v>2</v>
+        <v>21</v>
       </c>
       <c r="AD39" t="inlineStr"/>
       <c r="AE39" t="n">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="AF39" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG39" t="n">
-        <v>26</v>
-      </c>
-      <c r="AH39" t="inlineStr"/>
-      <c r="AI39" t="inlineStr"/>
-      <c r="AJ39" t="inlineStr"/>
+        <v>88</v>
+      </c>
+      <c r="AG39" t="inlineStr"/>
+      <c r="AH39" t="n">
+        <v>3</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2</v>
+      </c>
       <c r="AK39" t="inlineStr"/>
       <c r="AL39" t="inlineStr"/>
       <c r="AM39" t="n">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="AN39" t="inlineStr"/>
       <c r="AO39" t="inlineStr"/>
-      <c r="AP39" t="inlineStr"/>
-      <c r="AQ39" t="inlineStr"/>
+      <c r="AP39" t="n">
+        <v>716</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>716</v>
+      </c>
       <c r="AR39" t="inlineStr"/>
       <c r="AS39" t="inlineStr"/>
       <c r="AT39" t="inlineStr"/>
       <c r="AU39" t="inlineStr"/>
       <c r="AV39" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AW39" t="n">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="AX39" t="n">
         <v>0</v>
@@ -5654,7 +5624,7 @@
         <v>0</v>
       </c>
       <c r="AZ39" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="BA39" t="n">
         <v>0</v>
@@ -5662,87 +5632,89 @@
     </row>
     <row r="40">
       <c r="A40" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B40" t="n">
         <v>1</v>
       </c>
       <c r="C40" s="2" t="n">
-        <v>31050</v>
+        <v>44199</v>
       </c>
       <c r="D40" s="2" t="n">
-        <v>31401</v>
+        <v>44564</v>
       </c>
       <c r="E40" t="n">
-        <v>3719</v>
+        <v>3479</v>
       </c>
       <c r="F40" t="n">
-        <v>3603</v>
+        <v>2837</v>
       </c>
       <c r="G40" t="n">
-        <v>69</v>
+        <v>594</v>
       </c>
       <c r="H40" t="n">
-        <v>7</v>
+        <v>47</v>
       </c>
       <c r="I40" t="inlineStr"/>
       <c r="J40" t="n">
         <v>0</v>
       </c>
       <c r="K40" t="n">
-        <v>21367</v>
+        <v>6295</v>
       </c>
       <c r="L40" t="n">
-        <v>19013</v>
+        <v>6290</v>
       </c>
       <c r="M40" t="n">
-        <v>2354</v>
+        <v>5</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
       </c>
       <c r="O40" t="n">
-        <v>15370</v>
+        <v>8607</v>
       </c>
       <c r="P40" t="n">
-        <v>14478</v>
+        <v>6614</v>
       </c>
       <c r="Q40" t="n">
-        <v>892</v>
+        <v>1992</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>16721</v>
+        <v>4411</v>
       </c>
       <c r="T40" t="n">
-        <v>16720</v>
-      </c>
-      <c r="U40" t="inlineStr"/>
+        <v>4409</v>
+      </c>
+      <c r="U40" t="n">
+        <v>1</v>
+      </c>
       <c r="V40" t="n">
-        <v>2466</v>
+        <v>1644</v>
       </c>
       <c r="W40" t="n">
-        <v>2104</v>
+        <v>1323</v>
       </c>
       <c r="X40" t="n">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
       </c>
       <c r="Z40" t="n">
-        <v>59643</v>
+        <v>26351</v>
       </c>
       <c r="AA40" t="n">
-        <v>55918</v>
+        <v>22568</v>
       </c>
       <c r="AB40" t="n">
-        <v>3677</v>
+        <v>2915</v>
       </c>
       <c r="AC40" t="n">
-        <v>8</v>
+        <v>868</v>
       </c>
       <c r="AD40" t="inlineStr"/>
       <c r="AE40" t="n">
@@ -5753,147 +5725,175 @@
       </c>
       <c r="AG40" t="inlineStr"/>
       <c r="AH40" t="inlineStr"/>
-      <c r="AI40" t="inlineStr"/>
+      <c r="AI40" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ40" t="inlineStr"/>
       <c r="AK40" t="n">
         <v>1</v>
       </c>
       <c r="AL40" t="inlineStr"/>
-      <c r="AM40" t="inlineStr"/>
+      <c r="AM40" t="n">
+        <v>0</v>
+      </c>
       <c r="AN40" t="inlineStr"/>
       <c r="AO40" t="inlineStr"/>
-      <c r="AP40" t="inlineStr"/>
-      <c r="AQ40" t="inlineStr"/>
-      <c r="AR40" t="inlineStr"/>
-      <c r="AS40" t="inlineStr"/>
+      <c r="AP40" t="n">
+        <v>1916</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>1095</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>819</v>
+      </c>
       <c r="AT40" t="inlineStr"/>
       <c r="AU40" t="inlineStr"/>
       <c r="AV40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AW40" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="AX40" t="n">
         <v>0</v>
       </c>
       <c r="AY40" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="AZ40" t="n">
         <v>0</v>
       </c>
       <c r="BA40" t="n">
-        <v>34</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
-        <v>99</v>
+        <v>117</v>
       </c>
       <c r="B41" t="n">
         <v>2</v>
       </c>
       <c r="C41" s="2" t="n">
-        <v>31433</v>
+        <v>44564</v>
       </c>
       <c r="D41" s="2" t="n">
-        <v>31703</v>
+        <v>44929</v>
       </c>
       <c r="E41" t="n">
-        <v>2046</v>
+        <v>1837</v>
       </c>
       <c r="F41" t="n">
-        <v>2037</v>
+        <v>1694</v>
       </c>
       <c r="G41" t="n">
-        <v>70</v>
+        <v>585</v>
       </c>
       <c r="H41" t="n">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>585</v>
       </c>
       <c r="K41" t="n">
-        <v>12246</v>
+        <v>6372</v>
       </c>
       <c r="L41" t="n">
-        <v>14600</v>
-      </c>
-      <c r="M41" t="inlineStr"/>
+        <v>6327</v>
+      </c>
+      <c r="M41" t="n">
+        <v>50</v>
+      </c>
       <c r="N41" t="n">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="O41" t="n">
-        <v>9918</v>
+        <v>6242</v>
       </c>
       <c r="P41" t="n">
-        <v>10810</v>
-      </c>
-      <c r="Q41" t="inlineStr"/>
+        <v>6145</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>2089</v>
+      </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>2089</v>
       </c>
       <c r="S41" t="n">
-        <v>9952</v>
+        <v>4523</v>
       </c>
       <c r="T41" t="n">
-        <v>9952</v>
+        <v>4523</v>
       </c>
       <c r="U41" t="inlineStr"/>
       <c r="V41" t="n">
-        <v>2132</v>
+        <v>234</v>
       </c>
       <c r="W41" t="n">
-        <v>2494</v>
-      </c>
-      <c r="X41" t="inlineStr"/>
+        <v>553</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2</v>
+      </c>
       <c r="Y41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Z41" t="n">
-        <v>37294</v>
+        <v>19678</v>
       </c>
       <c r="AA41" t="n">
-        <v>39983</v>
+        <v>19714</v>
       </c>
       <c r="AB41" t="n">
-        <v>70</v>
+        <v>2726</v>
       </c>
       <c r="AC41" t="n">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>2726</v>
       </c>
       <c r="AF41" t="n">
-        <v>69</v>
+        <v>472</v>
       </c>
       <c r="AG41" t="n">
-        <v>2354</v>
+        <v>5</v>
       </c>
       <c r="AH41" t="n">
-        <v>892</v>
+        <v>1992</v>
       </c>
       <c r="AI41" t="inlineStr"/>
-      <c r="AJ41" t="inlineStr"/>
-      <c r="AK41" t="inlineStr"/>
+      <c r="AJ41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>1</v>
+      </c>
       <c r="AL41" t="n">
-        <v>362</v>
+        <v>321</v>
       </c>
       <c r="AM41" t="n">
-        <v>3677</v>
+        <v>2793</v>
       </c>
       <c r="AN41" t="inlineStr"/>
       <c r="AO41" t="inlineStr"/>
-      <c r="AP41" t="inlineStr"/>
-      <c r="AQ41" t="inlineStr"/>
+      <c r="AP41" t="n">
+        <v>470</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>472</v>
+      </c>
       <c r="AR41" t="inlineStr"/>
       <c r="AS41" t="inlineStr"/>
-      <c r="AT41" t="inlineStr"/>
+      <c r="AT41" t="n">
+        <v>2</v>
+      </c>
       <c r="AU41" t="inlineStr"/>
       <c r="AV41" t="n">
         <v>0</v>

--- a/data/confirmation_data.xlsx
+++ b/data/confirmation_data.xlsx
@@ -1144,10 +1144,10 @@
         <v>0</v>
       </c>
       <c r="Z5" t="n">
-        <v>37294</v>
+        <v>36294</v>
       </c>
       <c r="AA5" t="n">
-        <v>39983</v>
+        <v>39893</v>
       </c>
       <c r="AB5" t="n">
         <v>70</v>
@@ -1229,7 +1229,9 @@
       <c r="H6" t="n">
         <v>10</v>
       </c>
-      <c r="I6" t="inlineStr"/>
+      <c r="I6" t="n">
+        <v>1</v>
+      </c>
       <c r="J6" t="n">
         <v>16</v>
       </c>
@@ -1243,7 +1245,7 @@
         <v>2955</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" t="n">
         <v>14448</v>
@@ -1255,7 +1257,7 @@
         <v>2361</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S6" t="n">
         <v>12101</v>
@@ -1399,7 +1401,9 @@
       <c r="W7" t="n">
         <v>1595</v>
       </c>
-      <c r="X7" t="inlineStr"/>
+      <c r="X7" t="n">
+        <v>1</v>
+      </c>
       <c r="Y7" t="n">
         <v>0</v>
       </c>
@@ -1428,11 +1432,15 @@
       <c r="AH7" t="n">
         <v>2361</v>
       </c>
-      <c r="AI7" t="inlineStr"/>
+      <c r="AI7" t="n">
+        <v>1</v>
+      </c>
       <c r="AJ7" t="n">
         <v>46</v>
       </c>
-      <c r="AK7" t="inlineStr"/>
+      <c r="AK7" t="n">
+        <v>1</v>
+      </c>
       <c r="AL7" t="n">
         <v>10</v>
       </c>
@@ -1585,10 +1593,10 @@
         <v>0</v>
       </c>
       <c r="AX8" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="AZ8" t="n">
         <v>0</v>
@@ -1611,10 +1619,10 @@
         <v>33174</v>
       </c>
       <c r="E9" t="n">
-        <v>2008</v>
+        <v>2364</v>
       </c>
       <c r="F9" t="n">
-        <v>1715</v>
+        <v>2145</v>
       </c>
       <c r="G9" t="n">
         <v>287</v>
@@ -1627,9 +1635,11 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>27</v>
-      </c>
-      <c r="L9" t="inlineStr"/>
+        <v>13373</v>
+      </c>
+      <c r="L9" t="n">
+        <v>11422</v>
+      </c>
       <c r="M9" t="n">
         <v>1977</v>
       </c>
@@ -1637,9 +1647,11 @@
         <v>0</v>
       </c>
       <c r="O9" t="n">
-        <v>2441</v>
-      </c>
-      <c r="P9" t="inlineStr"/>
+        <v>15052</v>
+      </c>
+      <c r="P9" t="n">
+        <v>14567</v>
+      </c>
       <c r="Q9" t="n">
         <v>2924</v>
       </c>
@@ -1647,14 +1659,20 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>204</v>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+        <v>11370</v>
+      </c>
+      <c r="T9" t="n">
+        <v>11573</v>
+      </c>
+      <c r="U9" t="n">
+        <v>1</v>
+      </c>
       <c r="V9" t="n">
-        <v>11</v>
-      </c>
-      <c r="W9" t="inlineStr"/>
+        <v>2775</v>
+      </c>
+      <c r="W9" t="n">
+        <v>2786</v>
+      </c>
       <c r="X9" t="inlineStr"/>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1697,7 +1715,9 @@
       <c r="AM9" t="n">
         <v>2762</v>
       </c>
-      <c r="AN9" t="inlineStr"/>
+      <c r="AN9" t="n">
+        <v>1</v>
+      </c>
       <c r="AO9" t="inlineStr"/>
       <c r="AP9" t="inlineStr"/>
       <c r="AQ9" t="inlineStr"/>
@@ -1747,7 +1767,7 @@
         <v>101</v>
       </c>
       <c r="H10" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="n">
@@ -1824,7 +1844,9 @@
       <c r="AK10" t="inlineStr"/>
       <c r="AL10" t="inlineStr"/>
       <c r="AM10" t="inlineStr"/>
-      <c r="AN10" t="inlineStr"/>
+      <c r="AN10" t="n">
+        <v>1</v>
+      </c>
       <c r="AO10" t="inlineStr"/>
       <c r="AP10" t="inlineStr"/>
       <c r="AQ10" t="inlineStr"/>
@@ -2073,7 +2095,7 @@
         <v>38676</v>
       </c>
       <c r="AB12" t="n">
-        <v>2752</v>
+        <v>2572</v>
       </c>
       <c r="AC12" t="n">
         <v>1078</v>
@@ -2087,9 +2109,7 @@
       </c>
       <c r="AG12" t="inlineStr"/>
       <c r="AH12" t="inlineStr"/>
-      <c r="AI12" t="n">
-        <v>2</v>
-      </c>
+      <c r="AI12" t="inlineStr"/>
       <c r="AJ12" t="inlineStr"/>
       <c r="AK12" t="n">
         <v>878</v>
@@ -2202,7 +2222,7 @@
         <v>0</v>
       </c>
       <c r="Z13" t="n">
-        <v>37446</v>
+        <v>35045</v>
       </c>
       <c r="AA13" t="n">
         <v>37446</v>
@@ -2293,7 +2313,7 @@
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="K14" t="n">
         <v>18521</v>
@@ -2367,7 +2387,9 @@
       <c r="AL14" t="inlineStr"/>
       <c r="AM14" t="inlineStr"/>
       <c r="AN14" t="inlineStr"/>
-      <c r="AO14" t="inlineStr"/>
+      <c r="AO14" t="n">
+        <v>1</v>
+      </c>
       <c r="AP14" t="inlineStr"/>
       <c r="AQ14" t="inlineStr"/>
       <c r="AR14" t="inlineStr"/>
@@ -2461,7 +2483,9 @@
       <c r="W15" t="n">
         <v>2339</v>
       </c>
-      <c r="X15" t="inlineStr"/>
+      <c r="X15" t="n">
+        <v>1</v>
+      </c>
       <c r="Y15" t="n">
         <v>0</v>
       </c>
@@ -3885,7 +3909,7 @@
         <v>0</v>
       </c>
       <c r="Z26" t="n">
-        <v>0</v>
+        <v>23147</v>
       </c>
       <c r="AA26" t="n">
         <v>22892</v>
@@ -3910,7 +3934,7 @@
       <c r="AK26" t="inlineStr"/>
       <c r="AL26" t="inlineStr"/>
       <c r="AM26" t="n">
-        <v>23147</v>
+        <v>0</v>
       </c>
       <c r="AN26" t="inlineStr"/>
       <c r="AO26" t="inlineStr"/>
@@ -5798,7 +5822,7 @@
       </c>
       <c r="I41" t="inlineStr"/>
       <c r="J41" t="n">
-        <v>585</v>
+        <v>0</v>
       </c>
       <c r="K41" t="n">
         <v>6372</v>
@@ -5810,7 +5834,7 @@
         <v>50</v>
       </c>
       <c r="N41" t="n">
-        <v>50</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
         <v>6242</v>
@@ -5822,7 +5846,7 @@
         <v>2089</v>
       </c>
       <c r="R41" t="n">
-        <v>2089</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
         <v>4523</v>
@@ -5841,7 +5865,7 @@
         <v>2</v>
       </c>
       <c r="Y41" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="Z41" t="n">
         <v>19678</v>
@@ -5857,7 +5881,7 @@
       </c>
       <c r="AD41" t="inlineStr"/>
       <c r="AE41" t="n">
-        <v>2726</v>
+        <v>0</v>
       </c>
       <c r="AF41" t="n">
         <v>472</v>
